--- a/zookeeper/zookeeper.xlsx
+++ b/zookeeper/zookeeper.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="8010"/>
+    <workbookView windowWidth="25200" windowHeight="12240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>zookeeper 的使用场景</t>
   </si>
@@ -70,6 +70,431 @@
   </si>
   <si>
     <t>zk 分布式锁，获取不到锁，注册个监听器即可，不需要不断主动尝试获取锁，性能开销较小。</t>
+  </si>
+  <si>
+    <t>Zookeeper工作机制</t>
+  </si>
+  <si>
+    <r>
+      <t>从设计模式角度来理解，是一个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>基于观察者模式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设计的分布式服务管理框架，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>负责存储和管理大家关心的数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，然后接受观察者的注册，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>一旦这些数据的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>状态发生变化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，就将负</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>责通知已经在zk上注册的那些观察者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>做出相应的反应</t>
+    </r>
+  </si>
+  <si>
+    <t>文件系统+通知机制</t>
+  </si>
+  <si>
+    <t>ZK特点</t>
+  </si>
+  <si>
+    <t>一个Leader,多个Follower</t>
+  </si>
+  <si>
+    <t>集群只要半数以上存活，ZK集群就能正常服务</t>
+  </si>
+  <si>
+    <t>全局数据一致，每个Server保存一份想通的数据副本，Client无论链接到哪个Server，数据都是一致的</t>
+  </si>
+  <si>
+    <t>更新请求顺序进行，来自同一个Client的更新请求按其发送顺序依次执行。</t>
+  </si>
+  <si>
+    <t>数据更新的原子性，依次数据更新要么成功，要么失败。</t>
+  </si>
+  <si>
+    <t>实时性，在一次时间范围内，Client能读到最新数据（zk存储的数据量小，所以同步数据块）</t>
+  </si>
+  <si>
+    <t>数据结构</t>
+  </si>
+  <si>
+    <t>ZK数据模型的结构与Linux文件系统很像，可以看做是一棵树，</t>
+  </si>
+  <si>
+    <t>每个节点是一个znodel，</t>
+  </si>
+  <si>
+    <t>每个znode默认存储1MB的数据，</t>
+  </si>
+  <si>
+    <t>每个Znode都可以通过其路径唯一标识</t>
+  </si>
+  <si>
+    <t>节点类型（zk中存放了很多节点，每个节点的类型是什么样的）</t>
+  </si>
+  <si>
+    <r>
+      <t>持久性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：客户端和服务器端断开连接后，创建的节点不删除，</t>
+    </r>
+  </si>
+  <si>
+    <t>简单节点</t>
+  </si>
+  <si>
+    <t>顺序编号目录节点，创建一个节点尾号+1，例如znode001，znode002。。。。</t>
+  </si>
+  <si>
+    <t>好处就是在分布式系统中，顺序号可以被用于为所有的事件进行全局排序，这样客户端可以通过序号推断时间的顺序</t>
+  </si>
+  <si>
+    <r>
+      <t>短暂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：客户端和服务器端断开连接后，创建的节点自己删除（例如服务器挂了，这个时候节点必须要删除）</t>
+    </r>
+  </si>
+  <si>
+    <t>监听器的原理</t>
+  </si>
+  <si>
+    <t>首先要有一个main线程</t>
+  </si>
+  <si>
+    <t>在main线程中创建zk客户端，这时就会创建两个线程，一个负责网络连接通信connet，一个负责监听listener</t>
+  </si>
+  <si>
+    <r>
+      <t>通过connect线程将注册的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>监听事件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发送给zk</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>在zk的注册监听器列表中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>将注册的监听事件添加到列表中</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>zk监听到有数据或路径</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>变化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，就会将这个消息</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发送给listener线程</t>
+    </r>
+  </si>
+  <si>
+    <t>listener线程内部调用了业务逻辑的实现方法</t>
+  </si>
+  <si>
+    <t>常见的监听</t>
+  </si>
+  <si>
+    <t>监听节点数量的变化</t>
+  </si>
+  <si>
+    <t>监听子节点增减的变化</t>
+  </si>
+  <si>
+    <t>zk写数据的流程</t>
+  </si>
+  <si>
+    <t>client想zk的server1上写数据，发送一个请求</t>
+  </si>
+  <si>
+    <t>如果server1不是leader，那么server1会把接收到的请求进一步转发给leader</t>
+  </si>
+  <si>
+    <t>事后这个leader会将写请求广播给各个server，比如server1和server2，各个server写成功后就会通知leader</t>
+  </si>
+  <si>
+    <t>当leader收到大多数的server数据写成功了，那么说明数据写成功了，如果这里三个节点的话只要有两个节点写成功了，</t>
+  </si>
+  <si>
+    <t>那么就认为数据写成功了，写成功后，leader会告诉server1数据写成功了。</t>
+  </si>
+  <si>
+    <t>server会进一步通知client数据写成功了，这个时候就认为整个写操作成功了</t>
+  </si>
+  <si>
+    <t>ZK选举机制（面试）</t>
+  </si>
+  <si>
+    <r>
+      <t>半数机制：集群中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>半数以上机器存活</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，集群依然</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>可用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，所以安装奇数台服务器</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>虽然在配置文件并</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>没有指定master和slave</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，但是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zk工作时有一个节点为leader，其他则为follower，</t>
+    </r>
+  </si>
+  <si>
+    <t>leader是通过内部的选举机制临时产生的</t>
+  </si>
+  <si>
+    <t>选举方式：集群中的服务器先选自己，如果当选票数没有过半就选下一个id比自己大的，当某台服务器选举票数大于半数选为leader</t>
+  </si>
+  <si>
+    <t>zk部署方式</t>
+  </si>
+  <si>
+    <t>单机，集群</t>
+  </si>
+  <si>
+    <t>zk集群中的角色有哪些</t>
+  </si>
+  <si>
+    <t>leader和follower</t>
+  </si>
+  <si>
+    <t>最少需要几台机器</t>
+  </si>
+  <si>
+    <t>常用命令</t>
+  </si>
+  <si>
+    <t>ls</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>set</t>
   </si>
 </sst>
 </file>
@@ -79,10 +504,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,53 +524,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,62 +546,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,10 +568,80 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -249,6 +651,22 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -259,187 +677,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,49 +886,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -534,19 +915,56 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,152 +973,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -708,6 +1126,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -932,6 +1353,53 @@
         <a:xfrm>
           <a:off x="1371600" y="13544550"/>
           <a:ext cx="5962650" cy="3000375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="523875" y="6915150"/>
+          <a:ext cx="8458200" cy="1924050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1236,17 +1704,17 @@
   <sheetPr/>
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104:C104"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1271,84 +1739,84 @@
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="3"/>
+      <c r="B25" s="4"/>
       <c r="C25" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="3"/>
+      <c r="B26" s="4"/>
       <c r="C26" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="3"/>
+      <c r="B27" s="4"/>
       <c r="C27" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="3"/>
+      <c r="B28" s="4"/>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="3"/>
+      <c r="B30" s="4"/>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="3"/>
+      <c r="B31" s="4"/>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="3"/>
+      <c r="B32" s="4"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="3"/>
+      <c r="B33" s="4"/>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="3"/>
+      <c r="B34" s="4"/>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="3"/>
+      <c r="B35" s="4"/>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="3"/>
+      <c r="B36" s="4"/>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="3"/>
+      <c r="B37" s="4"/>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="3"/>
+      <c r="B38" s="4"/>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="3"/>
+      <c r="B39" s="4"/>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="3"/>
+      <c r="B40" s="4"/>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="3"/>
+      <c r="B41" s="4"/>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="3"/>
+      <c r="B42" s="4"/>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="3"/>
+      <c r="B43" s="4"/>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="3"/>
+      <c r="B44" s="4"/>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="3"/>
+      <c r="B45" s="4"/>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="3"/>
+      <c r="B46" s="4"/>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="3"/>
+      <c r="B47" s="4"/>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
@@ -1381,7 +1849,7 @@
       </c>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1406,38 +1874,337 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="2"/>
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3">
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3">
+      <c r="C59" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1"/>
+      <c r="B66" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1"/>
+      <c r="B67" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1"/>
+      <c r="C68" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1"/>
+      <c r="C69" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B80" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1"/>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/zookeeper/zookeeper.xlsx
+++ b/zookeeper/zookeeper.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="12240" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12690" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="zk面试题" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="275">
   <si>
     <t>zookeeper 的使用场景</t>
   </si>
@@ -76,6 +76,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>从设计模式角度来理解，是一个</t>
     </r>
     <r>
@@ -123,6 +130,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>一旦这些数据的</t>
     </r>
     <r>
@@ -212,6 +226,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>持久性</t>
     </r>
     <r>
@@ -236,6 +258,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>短暂</t>
     </r>
     <r>
@@ -260,6 +290,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>通过connect线程将注册的</t>
     </r>
     <r>
@@ -286,6 +323,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>在zk的注册监听器列表中</t>
     </r>
     <r>
@@ -302,6 +346,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>zk监听到有数据或路径</t>
     </r>
     <r>
@@ -495,6 +546,1587 @@
   </si>
   <si>
     <t>set</t>
+  </si>
+  <si>
+    <t>ZooKeeper是什么</t>
+  </si>
+  <si>
+    <r>
+      <t>ZooKeeper是一个开放源码的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分布式协调服务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，它是集群的管理者，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>监视着集群中各个节点的状态根据节点提交的反馈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>进行下一步合理操作。</t>
+    </r>
+  </si>
+  <si>
+    <t>最终，将简单易用的接口和性能高效、功能稳定的系统提供给用户</t>
+  </si>
+  <si>
+    <t>ZooKeeper提供了什么</t>
+  </si>
+  <si>
+    <t>文件系统</t>
+  </si>
+  <si>
+    <t>通知机制</t>
+  </si>
+  <si>
+    <t>Zookeeper文件系统</t>
+  </si>
+  <si>
+    <r>
+      <t>Zookeeper提供一个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>多层级的节点命名空间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（节点称为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>znode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）。与文件系统不同的是，这些节点都可以设置关联的数据，而文件系统中只有文件节点可以存放数据而目录节点不行。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Zookeeper</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为了保证高吞吐和低延迟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，在内存中维护了这个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>树状的目录结构</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，这种特性使得Zookeeper不能用于存放大量的数据，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>每个节点的存放数据上限为1M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>ZooKeeper 分布式锁实现原理</t>
+  </si>
+  <si>
+    <t>进程需要访问共享数据时, 就在"/locks"节点下创建一个sequence类型的子节点, 称为thisPath.</t>
+  </si>
+  <si>
+    <t>当thisPath在所有子节点中最小时, 说明该进程获得了锁.</t>
+  </si>
+  <si>
+    <t>进程获得锁之后, 就可以访问共享资源了.</t>
+  </si>
+  <si>
+    <t>访问完成后, 需要将thisPath删除. 锁由新的最小的子节点获得.</t>
+  </si>
+  <si>
+    <t>进程如何知道thisPath是所有子节点中最小的呢?</t>
+  </si>
+  <si>
+    <t>可以在创建的时候, 通过getChildren方法获取子节点列表</t>
+  </si>
+  <si>
+    <t>然后在列表中找到排名比thisPath前1位的节点, 称为waitPath,</t>
+  </si>
+  <si>
+    <t>然后在waitPath上注册监听</t>
+  </si>
+  <si>
+    <t>当waitPath被删除后, 进程获得通知, 此时说明该进程获得了锁.</t>
+  </si>
+  <si>
+    <t>ZAB协议</t>
+  </si>
+  <si>
+    <r>
+      <t>ZAB协议是为分布式协调服务Zookeeper专门设计的一种</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>支持崩溃恢复的原子广播协议</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ZAB协议包括两种基本的模式：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>崩溃恢复</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>消息广播。</t>
+    </r>
+  </si>
+  <si>
+    <t>Leader 服务可以正常使用，就进入消息广播模式，当 Leader 不可用时，则进入崩溃恢复模式。</t>
+  </si>
+  <si>
+    <t>广播模式</t>
+  </si>
+  <si>
+    <t>ZAB 协议的消息广播过程使用的是一个原子广播协议，类似一个 二阶段提交过程。</t>
+  </si>
+  <si>
+    <t>对于客户端发送的写请求，全部由 Leader 接收</t>
+  </si>
+  <si>
+    <t>Leader 将请求封装成一个事务 Proposal，将其发送给所有 Follwer</t>
+  </si>
+  <si>
+    <t>然后，根据所有 Follwer 的反馈，如果超过半数成功响应，则执行 commit 操作（先提交自己，再发送 commit 给所有 Follwer）</t>
+  </si>
+  <si>
+    <t>崩溃恢复</t>
+  </si>
+  <si>
+    <t>ZAB 定义了 2 个原则：</t>
+  </si>
+  <si>
+    <r>
+      <t>1.ZAB 协议确保那些</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>已经在 Leader 提交的事务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最终会</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>被所有服务器提交</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.ZAB 协议确保</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>丢弃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>那些</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>只在 Leader 提出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/复制，但</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>没有提交的事务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>能够确保提交已经被 Leader 提交的事务，同时丢弃已经被跳过的事务。</t>
+  </si>
+  <si>
+    <t>如果让 Leader 选举算法能够保证新选举出来的 Leader 服务器拥有集群总所有机器编号（即 ZXID 最大）的事务，</t>
+  </si>
+  <si>
+    <t>那么就能够保证这个新选举出来的 Leader 一定具有所有已经提交的提案。</t>
+  </si>
+  <si>
+    <t>数据同步</t>
+  </si>
+  <si>
+    <t>当崩溃恢复之后，需要在正式工作之前（接收客户端请求），Leader 服务器首先确认事务是否都已经被过半的 Follwer 提交了，即是否完成了数据同步。目的是为了保持数据一致。</t>
+  </si>
+  <si>
+    <t>当所有的 Follwer 服务器都成功同步之后，Leader 会将这些服务器加入到可用服务器列表中。</t>
+  </si>
+  <si>
+    <t>ZAB和Paxos算法的联系与区别？</t>
+  </si>
+  <si>
+    <t>相同点</t>
+  </si>
+  <si>
+    <t>两者都存在一个类似于Leader进程的角色，由其负责协调多个Follower进程的运行</t>
+  </si>
+  <si>
+    <t>Leader进程都会等待超过半数的Follower做出正确的反馈后，才会将一个提案进行提交</t>
+  </si>
+  <si>
+    <t>ZAB协议中，每个Proposal中都包含一个 epoch 值来代表当前的Leader周期，Paxos中名字为Ballot</t>
+  </si>
+  <si>
+    <t>不同点</t>
+  </si>
+  <si>
+    <r>
+      <t>ZAB用来构建</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>高可用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的分布式数据主备系统（Zookeeper）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Paxos是用来构建分布式</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一致性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>状态机系统。</t>
+    </r>
+  </si>
+  <si>
+    <t>服务器角色</t>
+  </si>
+  <si>
+    <t>Leader</t>
+  </si>
+  <si>
+    <t>事务请求的唯一调度和处理者，保证集群事务处理的顺序性</t>
+  </si>
+  <si>
+    <t>集群内部各服务的调度者</t>
+  </si>
+  <si>
+    <t>Follower</t>
+  </si>
+  <si>
+    <t>处理客户端的非事务请求，转发事务请求给Leader服务器</t>
+  </si>
+  <si>
+    <t>参与事务请求Proposal的投票</t>
+  </si>
+  <si>
+    <t>参与Leader选举投票</t>
+  </si>
+  <si>
+    <t>Observer（3.3.0版本以后引入的一个服务器角色，在不影响集群事务处理能力的基础上提升集群的非事务处理能力）</t>
+  </si>
+  <si>
+    <t>不参与任何形式的投票</t>
+  </si>
+  <si>
+    <t>Zookeeper 下 Server工作状态</t>
+  </si>
+  <si>
+    <t>LOOKING：寻找Leader状态。当服务器处于该状态时，它会认为当前集群中没有Leader，因此需要进入Leader选举状态。</t>
+  </si>
+  <si>
+    <t>FOLLOWING：跟随者状态。表明当前服务器角色是Follower。</t>
+  </si>
+  <si>
+    <t>LEADING：领导者状态。表明当前服务器角色是Leader。</t>
+  </si>
+  <si>
+    <t>OBSERVING：观察者状态。表明当前服务器角色是Observer。</t>
+  </si>
+  <si>
+    <t>ZXID</t>
+  </si>
+  <si>
+    <t>一个 64 位的数字，</t>
+  </si>
+  <si>
+    <t>其中低 32 位可以看作是一个简单的递增的计数器，针对客户端的每一个事务请求，Leader 都会产生一个新的事务 Proposal 并对该计数器进行 + 1 操作。</t>
+  </si>
+  <si>
+    <t>而高 32 位则代表了 Leader 服务器上取出本地日志中最大事务 Proposal 的 ZXID，并从该 ZXID 中解析出对应的 epoch 值，然后再对这个值+1</t>
+  </si>
+  <si>
+    <t>高 32 位代表了每代 Leader 的唯一性，低 32 代表了每代 Leader 中事务的唯一性。</t>
+  </si>
+  <si>
+    <t>基于这样的策略：当 Follower 链接上 Leader 之后，Leader 服务器会根据自己服务器上最后被提交的 ZXID 和 Follower 上的 ZXID 进行比对，比对结果要么回滚，要么和 Leader 同步。</t>
+  </si>
+  <si>
+    <t>Leader 选举</t>
+  </si>
+  <si>
+    <t>当Zookeeper集群中的一台服务器出现以下两种情况之一时，需要进入Leader选举。</t>
+  </si>
+  <si>
+    <t>1.服务器启动时期的Leader选举</t>
+  </si>
+  <si>
+    <r>
+      <t>每个Server发出一个投票</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。每次</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>投票会包含所推举的服务器的myid和ZXID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（集群范围内，全局单调唯一递增）使用(myid, ZXID)来表示，然后各自将这个投票发给集群中其他机器</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>接受来自各个服务器的投票</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。集群的每个服务器收到投票后，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>首先判断该投票的有效性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，如检查是否是本轮投票、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是否来自LOOKING状态的服务器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>处理投票</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。针对每一个投票，服务器都需要将别人的投票和自己的投票进行PK，PK规则如下</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>优先</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>检查ZXID。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ZXID比较大的服务器优先作为Leader</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>如果ZXID相同，那么就比较myid。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>myid较大的服务器作为Leader服务器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>统计投票</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。每次投票后，服务器都会统计投票信息，判断是否已经有</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>过半机器接受到相同的投票信息，如果有就认为选出了leader</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>改变服务器状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。一旦确定了Leader，每个服务器就会更新自己的状态，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果是Follower，那么就变更为FOLLOWING</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，如果是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leader，就变更为LEADING</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>2. 服务器运行时期的Leader选举</t>
+  </si>
+  <si>
+    <t>变更状态。Leader挂后，余下的非Observer服务器都会讲自己的服务器状态变更为LOOKING，然后开始进入Leader选举过程。</t>
+  </si>
+  <si>
+    <r>
+      <t>每个Server会发出一个投票。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在第一轮投票中每个Server都会投自己</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，然后各自将投票发送给集群中所有机器</t>
+    </r>
+  </si>
+  <si>
+    <t>整个集群完成Leader选举之后，Learner（Follower和Observer的统称）回向Leader服务器进行注册。当Learner服务器想Leader服务器完成注册后，进入数据同步环节。</t>
+  </si>
+  <si>
+    <t>数据同步流程：（均以消息传递的方式进行）</t>
+  </si>
+  <si>
+    <t>1.Learner向Learder注册</t>
+  </si>
+  <si>
+    <t>2.数据同步</t>
+  </si>
+  <si>
+    <t>3.同步确认</t>
+  </si>
+  <si>
+    <t>在进行数据同步前，Leader服务器会完成数据同步初始化：</t>
+  </si>
+  <si>
+    <r>
+      <t>peerLastZxid：从learner服务器注册时发送的ACKEPOCH消息中提取lastZxid（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>该Learner服务器最后处理的ZXID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>minCommittedLog：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leader</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>服务器Proposal缓存队列committedLog</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中最小ZXID</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>maxCommittedLog：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leader服务器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Proposal缓存队列committedLog</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中最大ZXID</t>
+    </r>
+  </si>
+  <si>
+    <t>Zookeeper的数据同步通常分为四类：</t>
+  </si>
+  <si>
+    <t>直接差异化同步（DIFF同步）</t>
+  </si>
+  <si>
+    <t>场景：peerLastZxid介于minCommittedLog和maxCommittedLog之间</t>
+  </si>
+  <si>
+    <t>先回滚再差异化同步（TRUNC+DIFF同步）</t>
+  </si>
+  <si>
+    <t>场景：当新的Leader服务器发现某个Learner服务器包含了一条自己没有的事务记录，</t>
+  </si>
+  <si>
+    <t>那么就需要让该Learner服务器进行事务回滚--回滚到Leader服务器上存在的，同时也是最接近于peerLastZxid的ZXID</t>
+  </si>
+  <si>
+    <t>仅回滚同步（TRUNC同步）</t>
+  </si>
+  <si>
+    <t>peerLastZxid 大于 maxCommittedLog</t>
+  </si>
+  <si>
+    <t>全量同步（SNAP同步）</t>
+  </si>
+  <si>
+    <t>peerLastZxid 小于 minCommittedLog</t>
+  </si>
+  <si>
+    <t>Leader服务器上没有Proposal缓存队列且peerLastZxid不等于lastProcessZxid</t>
+  </si>
+  <si>
+    <t>四种类型的数据节点 Znode</t>
+  </si>
+  <si>
+    <t>PERSISTENT-持久节点</t>
+  </si>
+  <si>
+    <r>
+      <t>除非</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>手动删除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>否则节点一直存在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>于Zookeeper上</t>
+    </r>
+  </si>
+  <si>
+    <t>EPHEMERAL-临时节点</t>
+  </si>
+  <si>
+    <r>
+      <t>临时节点的生命周期与客户端会话绑定，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一旦客户端会话失效</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（客户端与zookeeper连接断开不一定会话失效），那么这个客户端创建的所有</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>临时节点都会被移除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>PERSISTENT_SEQUENTIAL-持久顺序节点</t>
+  </si>
+  <si>
+    <t>基本特性同持久节点，只是增加了顺序属性，节点名后边会追加一个由父节点维护的自增整型数字。</t>
+  </si>
+  <si>
+    <t>EPHEMERAL_SEQUENTIAL-临时顺序节点</t>
+  </si>
+  <si>
+    <t>基本特性同临时节点，增加了顺序属性，节点名后边会追加一个由父节点维护的自增整型数字。</t>
+  </si>
+  <si>
+    <t>Zookeeper Watcher 机制 -- 数据变更通知</t>
+  </si>
+  <si>
+    <r>
+      <t>Zookeeper允许</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>客户端向服务端的某个Znode注册一个Watcher监听</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>服务端的一些指定</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>事件触发了这个Watcher</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>服务端会向指定客户端发送一个事件通知</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>来实现分布式的通知功能，</t>
+    </r>
+  </si>
+  <si>
+    <t>然后客户端根据Watcher通知状态和事件类型做出业务上的改变。</t>
+  </si>
+  <si>
+    <t>工作机制：</t>
+  </si>
+  <si>
+    <t>客户端注册watcher</t>
+  </si>
+  <si>
+    <t>服务端处理watcher</t>
+  </si>
+  <si>
+    <t>客户端回调watcher</t>
+  </si>
+  <si>
+    <t>客户端注册Watcher实现</t>
+  </si>
+  <si>
+    <t>调用getData()/getChildren()/exist()三个API，传入Watcher对象</t>
+  </si>
+  <si>
+    <t>标记请求request，封装Watcher到WatchRegistration</t>
+  </si>
+  <si>
+    <t>封装成Packet对象，发服务端发送request</t>
+  </si>
+  <si>
+    <t>收到服务端响应后，将Watcher注册到ZKWatcherManager中进行管理</t>
+  </si>
+  <si>
+    <t>请求返回，完成注册。</t>
+  </si>
+  <si>
+    <t>服务端处理Watcher实现</t>
+  </si>
+  <si>
+    <t>1.服务端接收Watcher并存储</t>
+  </si>
+  <si>
+    <t>接收到客户端请求，处理请求判断是否需要注册Watcher，需要的话将数据节点的节点路径和ServerCnxn（ServerCnxn代表一个客户端和服务端的连接，</t>
+  </si>
+  <si>
+    <t>实现了Watcher的process接口，此时可以看成一个Watcher对象）存储在WatcherManager的WatchTable和watch2Paths中去。</t>
+  </si>
+  <si>
+    <t>2.Watcher触发（Watcher在服务端是一次性的，触发一次就失效了）</t>
+  </si>
+  <si>
+    <t>以服务端接收到 setData() 事务请求触发NodeDataChanged事件为例：</t>
+  </si>
+  <si>
+    <t>1.封装WatchedEvent：将通知状态（SyncConnected）、事件类型（NodeDataChanged）以及节点路径封装成一个WatchedEvent对象</t>
+  </si>
+  <si>
+    <t>2.查询Watcher：从WatchTable中根据节点路径查找Watcher</t>
+  </si>
+  <si>
+    <t>3.没找到说明没有客户端在该数据节点上注册过Watcher</t>
+  </si>
+  <si>
+    <t>4.找到：提取并从WatchTable和Watch2Paths中删除对应Watcher（从这里可以看出Watcher在服务端是一次性的，触发一次就失效了）</t>
+  </si>
+  <si>
+    <t>3.调用process方法来触发Watcher</t>
+  </si>
+  <si>
+    <t>这里process主要就是通过ServerCnxn对应的TCP连接发送Watcher事件通知。</t>
+  </si>
+  <si>
+    <t>客户端回调Watcher</t>
+  </si>
+  <si>
+    <t>客户端SendThread线程接收事件通知，交由EventThread线程回调Watcher。客户端的Watcher机制同样是一次性的，一旦被触发后，该Watcher就失效了。</t>
+  </si>
+  <si>
+    <t>ACL（Access Control List）访问控制列表，权限控制机制</t>
+  </si>
+  <si>
+    <t>权限模式（Scheme）</t>
+  </si>
+  <si>
+    <t>IP：从IP地址粒度进行权限控制</t>
+  </si>
+  <si>
+    <t>Digest：最常用，用类似于 username:password 的权限标识来进行权限配置，便于区分不同应用来进行权限控制</t>
+  </si>
+  <si>
+    <t>World：最开放的权限控制方式，是一种特殊的digest模式，只有一个权限标识“world:anyone”</t>
+  </si>
+  <si>
+    <t>Super：超级用户</t>
+  </si>
+  <si>
+    <t>授权对象</t>
+  </si>
+  <si>
+    <t>授权对象指的是权限赋予的用户或一个指定实体，例如IP地址或是机器灯。</t>
+  </si>
+  <si>
+    <t>权限 Permission（允许）</t>
+  </si>
+  <si>
+    <t>CREATE：数据节点创建权限，允许授权对象在该Znode下创建子节点</t>
+  </si>
+  <si>
+    <t>DELETE：子节点删除权限，允许授权对象删除该数据节点的子节点</t>
+  </si>
+  <si>
+    <t>READ：数据节点的读取权限，允许授权对象访问该数据节点并读取其数据内容或子节点列表等</t>
+  </si>
+  <si>
+    <t>WRITE：数据节点更新权限，允许授权对象对该数据节点进行更新操作</t>
+  </si>
+  <si>
+    <t>ADMIN：数据节点管理权限，允许授权对象对该数据节点进行ACL相关设置操作</t>
+  </si>
+  <si>
+    <t>Chroot特性</t>
+  </si>
+  <si>
+    <t>该特性允许每个客户端为自己设置一个命名空间。如果一个客户端设置了Chroot，那么该客户端对服务器的任何操作，都将会被限制在其自己的命名空间下。</t>
+  </si>
+  <si>
+    <t>通过设置Chroot，能够将一个客户端应用于Zookeeper服务端的一颗子树相对应，在那些多个应用公用一个Zookeeper进群的场景下，对实现不同应用间的相互隔离非常有帮助。</t>
+  </si>
+  <si>
+    <t>会话管理</t>
+  </si>
+  <si>
+    <t>分桶策略：将类似的会话放在同一区块中进行管理，以便于Zookeeper对会话进行不同区块的隔离处理以及同一区块的统一处理。</t>
+  </si>
+  <si>
+    <t>分配原则：每个会话的“下次超时时间点”（ExpirationTime）</t>
+  </si>
+  <si>
+    <t>ExpirationTime_ = currentTime + sessionTimeout</t>
+  </si>
+  <si>
+    <t>ExpirationTime = (ExpirationTime_ / ExpirationInrerval + 1) * ExpirationInterval , ExpirationInterval 是指 Zookeeper 会话超时检查时间间隔，默认 tickTime</t>
+  </si>
+  <si>
+    <t>zookeeper是如何保证事务的顺序一致性的？</t>
+  </si>
+  <si>
+    <t>zookeeper采用了全局递增的事务Id来标识，所有的proposal（提议）都在被提出的时候加上了zxid</t>
+  </si>
+  <si>
+    <t>ZXID是一个64位的数字，低32代表一个单调递增的计数器，高32位代表Leader周期。</t>
+  </si>
+  <si>
+    <t>当新产生proposal的时候，会依据数据库的两阶段过程，首先会向其他的server发出事务执行请求，如果超过半数的机器都能执行并且能够成功，那么就会开始执行。</t>
+  </si>
+  <si>
+    <t>分布式集群中为什么会有Master？</t>
+  </si>
+  <si>
+    <t>在分布式环境中，有些业务逻辑只需要集群中的某一台机器进行执行，其他的机器可以共享这个结果，这样可以大大减少重复计算，提高性能，于是就需要进行leader选举。</t>
+  </si>
+  <si>
+    <t>zk节点宕机如何处理？</t>
+  </si>
+  <si>
+    <t>Zookeeper本身也是集群，推荐配置不少于3个服务器。</t>
+  </si>
+  <si>
+    <t>如果是一个Follower宕机，还有2台服务器提供访问，因为Zookeeper上的数据是有多个副本的，数据并不会丢失；</t>
+  </si>
+  <si>
+    <t>如果是一个Leader宕机，Zookeeper会选举出新的Leader。</t>
+  </si>
+  <si>
+    <t>ZK集群的机制是只要超过半数的节点正常，集群就能正常提供服务。只有在ZK节点挂得太多，只剩一半或不到一半节点能工作，集群才失效。</t>
+  </si>
+  <si>
+    <t>zookeeper负载均衡和nginx负载均衡区别</t>
+  </si>
+  <si>
+    <r>
+      <t>zk的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>负载均衡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>可以调控</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>nginx</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>只是能调权重</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，其他需要可控的都需要自己写插件；</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>但是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nginx的吞吐量比zk大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>很多，</t>
+    </r>
+  </si>
+  <si>
+    <t>应该说按业务选择用哪种方式。</t>
+  </si>
+  <si>
+    <t>Zookeeper有哪几种几种部署模式？</t>
+  </si>
+  <si>
+    <t>单机模式、伪集群模式、集群模式。</t>
+  </si>
+  <si>
+    <t>集群最少要几台机器，集群规则是怎样的?</t>
+  </si>
+  <si>
+    <t>集群规则为2N+1台，N&gt;0，即3台。</t>
+  </si>
+  <si>
+    <t>集群支持动态添加机器吗？</t>
+  </si>
+  <si>
+    <t>水平扩容了，Zookeeper在这方面不太好。两种方式：</t>
+  </si>
+  <si>
+    <t>全部重启：关闭所有Zookeeper服务，修改配置之后启动。不影响之前客户端的会话。</t>
+  </si>
+  <si>
+    <t>逐个重启：在过半存活即可用的原则下，一台机器重启不影响整个集群对外提供服务。这是比较常用的方式。</t>
+  </si>
+  <si>
+    <t>Zookeeper对节点的watch监听通知是永久的吗？为什么不是永久的?</t>
+  </si>
+  <si>
+    <t>不是。官方声明：一个Watch事件是一个一次性的触发器，当被设置了Watch的数据发生了改变的时候，则服务器将这个改变发送给设置了Watch的客户端，以便通知它们。</t>
+  </si>
+  <si>
+    <t>为什么不是永久的，举个例子，如果服务端变动频繁，而监听的客户端很多情况下，每次变动都要通知到所有的客户端，给网络和服务器造成很大压力。</t>
+  </si>
+  <si>
+    <t>一般是客户端执行getData(“/节点A”,true)，如果节点A发生了变更或删除，客户端会得到它的watch事件，但是在之后节点A又发生了变更，而客户端又没有设置watch事件，就不再给客户端发送。</t>
+  </si>
+  <si>
+    <t>在实际应用中，很多情况下，我们的客户端不需要知道服务端的每一次变动，我只要最新的数据即可。</t>
+  </si>
+  <si>
+    <t>Zookeeper的java客户端都有哪些？</t>
+  </si>
+  <si>
+    <t>java客户端：zk自带的zkclient及Apache开源的Curator。</t>
+  </si>
+  <si>
+    <t>chubby是什么，和zookeeper比你怎么看？</t>
+  </si>
+  <si>
+    <t>chubby是google的，完全实现paxos算法，不开源。</t>
+  </si>
+  <si>
+    <t>zookeeper是chubby的开源实现，使用zab协议，paxos算法的变种。</t>
+  </si>
+  <si>
+    <t>说几个zookeeper常用的命令。</t>
+  </si>
+  <si>
+    <t>常用命令：ls get set create delete等。</t>
+  </si>
+  <si>
+    <t>Zookeeper的典型应用场景</t>
+  </si>
+  <si>
+    <t>数据发布/订阅</t>
+  </si>
+  <si>
+    <t>负载均衡</t>
+  </si>
+  <si>
+    <t>命名服务</t>
+  </si>
+  <si>
+    <t>分布式协调/通知</t>
+  </si>
+  <si>
+    <t>集群管理</t>
+  </si>
+  <si>
+    <t>Master选举</t>
+  </si>
+  <si>
+    <t>分布式队列</t>
   </si>
 </sst>
 </file>
@@ -502,8 +2134,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -525,14 +2157,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -546,20 +2186,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -569,15 +2208,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -599,8 +2238,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,24 +2277,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -639,7 +2287,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -649,22 +2297,6 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -677,7 +2309,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,175 +2483,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -882,59 +2514,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -968,6 +2547,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -976,10 +2608,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -988,133 +2620,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1704,17 +3336,17 @@
   <sheetPr/>
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1849,7 +3481,7 @@
       </c>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="2" t="s">
+      <c r="A99" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1876,17 +3508,17 @@
   <sheetPr/>
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1906,7 +3538,7 @@
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1941,7 +3573,7 @@
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1966,12 +3598,12 @@
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1991,12 +3623,12 @@
       </c>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2046,7 +3678,7 @@
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2081,36 +3713,32 @@
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="1"/>
+    <row r="66" spans="2:2">
       <c r="B66" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="1"/>
+    <row r="67" spans="2:2">
       <c r="B67" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="1"/>
+    <row r="68" spans="3:3">
       <c r="C68" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="1"/>
+    <row r="69" spans="3:3">
       <c r="C69" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="1" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2120,7 +3748,7 @@
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="1" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2130,7 +3758,7 @@
       </c>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="1" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2140,7 +3768,7 @@
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B80" t="s">
@@ -2178,31 +3806,1086 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:E252"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1"/>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2"/>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3"/>
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2"/>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4"/>
+      <c r="A4" s="2"/>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5"/>
+      <c r="A5" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" s="1"/>
+      <c r="C30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" s="1"/>
+      <c r="C31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" s="1"/>
+      <c r="C32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="1"/>
+      <c r="C33" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="1"/>
+      <c r="C35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" s="1"/>
+      <c r="C36" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" s="1"/>
+      <c r="C37" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" s="3"/>
+      <c r="C39" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4">
+      <c r="C40" s="3"/>
+      <c r="D40" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3">
+      <c r="C48" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3">
+      <c r="C59" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3">
+      <c r="C60" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3">
+      <c r="C61" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3">
+      <c r="C64" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3">
+      <c r="C83" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="84" spans="4:4">
+      <c r="D84" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="85" spans="4:4">
+      <c r="D85" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="86" spans="4:4">
+      <c r="D86" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="87" spans="5:5">
+      <c r="E87" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="88" spans="5:5">
+      <c r="E88" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="89" spans="4:4">
+      <c r="D89" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="90" spans="4:4">
+      <c r="D90" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3">
+      <c r="C92" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="93" spans="4:4">
+      <c r="D93" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="94" spans="4:4">
+      <c r="D94" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="95" spans="4:4">
+      <c r="D95" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="96" spans="4:4">
+      <c r="D96" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="97" spans="5:5">
+      <c r="E97" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="98" spans="5:5">
+      <c r="E98" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="99" spans="4:4">
+      <c r="D99" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="100" spans="4:4">
+      <c r="D100" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="106" spans="3:3">
+      <c r="C106" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="107" spans="3:3">
+      <c r="C107" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="108" spans="3:3">
+      <c r="C108" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="111" spans="3:3">
+      <c r="C111" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3">
+      <c r="C112" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3">
+      <c r="C113" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3">
+      <c r="C116" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="117" spans="4:4">
+      <c r="D117" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3">
+      <c r="C118" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="119" spans="4:4">
+      <c r="D119" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="120" spans="5:5">
+      <c r="E120" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3">
+      <c r="C121" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="122" spans="4:4">
+      <c r="D122" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3">
+      <c r="C123" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="124" spans="4:4">
+      <c r="D124" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="125" spans="4:4">
+      <c r="D125" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3">
+      <c r="C130" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="132" spans="3:3">
+      <c r="C132" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="134" spans="3:3">
+      <c r="C134" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="136" spans="3:3">
+      <c r="C136" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="140" spans="3:3">
+      <c r="C140" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="142" spans="3:3">
+      <c r="C142" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="143" spans="3:3">
+      <c r="C143" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="144" spans="3:3">
+      <c r="C144" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="155" spans="3:3">
+      <c r="C155" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="156" spans="4:4">
+      <c r="D156" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2">
+      <c r="B157" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="158" spans="3:3">
+      <c r="C158" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="159" spans="4:4">
+      <c r="D159" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="160" spans="4:4">
+      <c r="D160" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="161" spans="4:4">
+      <c r="D161" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="162" spans="4:4">
+      <c r="D162" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2">
+      <c r="B163" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="164" spans="3:3">
+      <c r="C164" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2">
+      <c r="B167" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2">
+      <c r="B170" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="171" spans="3:3">
+      <c r="C171" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="172" spans="3:3">
+      <c r="C172" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="173" spans="3:3">
+      <c r="C173" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="174" spans="3:3">
+      <c r="C174" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2">
+      <c r="B175" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="176" spans="3:3">
+      <c r="C176" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2">
+      <c r="B177" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="178" spans="3:3">
+      <c r="C178" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="179" spans="3:3">
+      <c r="C179" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="180" spans="3:3">
+      <c r="C180" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="181" spans="3:3">
+      <c r="C181" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="182" spans="3:3">
+      <c r="C182" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2">
+      <c r="B185" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="186" spans="3:3">
+      <c r="C186" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2">
+      <c r="B189" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2">
+      <c r="B190" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2">
+      <c r="B191" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2">
+      <c r="B192" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2">
+      <c r="B196" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2">
+      <c r="B197" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2">
+      <c r="B198" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2">
+      <c r="B201" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2">
+      <c r="B204" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2">
+      <c r="B205" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2">
+      <c r="B206" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2">
+      <c r="B207" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2">
+      <c r="B210" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2">
+      <c r="B211" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2">
+      <c r="B212" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2">
+      <c r="B213" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2">
+      <c r="B216" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2">
+      <c r="B219" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2">
+      <c r="B222" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2">
+      <c r="B223" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2">
+      <c r="B224" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2">
+      <c r="B227" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2">
+      <c r="B229" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2">
+      <c r="B230" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2">
+      <c r="B231" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2">
+      <c r="B234" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2">
+      <c r="B237" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2">
+      <c r="B238" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2">
+      <c r="B241" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2">
+      <c r="B245" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2">
+      <c r="B246" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2">
+      <c r="B247" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2">
+      <c r="B248" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2">
+      <c r="B249" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2">
+      <c r="B250" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2">
+      <c r="B251" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2">
+      <c r="B252" t="s">
+        <v>274</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/zookeeper/zookeeper.xlsx
+++ b/zookeeper/zookeeper.xlsx
@@ -426,6 +426,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>半数机制：集群中</t>
     </r>
     <r>
@@ -473,6 +480,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>虽然在配置文件并</t>
     </r>
     <r>
@@ -552,6 +566,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>ZooKeeper是一个开放源码的</t>
     </r>
     <r>
@@ -601,6 +622,30 @@
     <t>最终，将简单易用的接口和性能高效、功能稳定的系统提供给用户</t>
   </si>
   <si>
+    <t>Zookeeper的典型应用场景</t>
+  </si>
+  <si>
+    <t>数据发布/订阅</t>
+  </si>
+  <si>
+    <t>负载均衡</t>
+  </si>
+  <si>
+    <t>命名服务</t>
+  </si>
+  <si>
+    <t>分布式协调/通知</t>
+  </si>
+  <si>
+    <t>集群管理</t>
+  </si>
+  <si>
+    <t>Master选举</t>
+  </si>
+  <si>
+    <t>分布式队列</t>
+  </si>
+  <si>
     <t>ZooKeeper提供了什么</t>
   </si>
   <si>
@@ -614,6 +659,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Zookeeper提供一个</t>
     </r>
     <r>
@@ -661,6 +713,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Zookeeper</t>
     </r>
     <r>
@@ -762,6 +821,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>ZAB协议是为分布式协调服务Zookeeper专门设计的一种</t>
     </r>
     <r>
@@ -788,6 +854,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>ZAB协议包括两种基本的模式：</t>
     </r>
     <r>
@@ -849,6 +922,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1.ZAB 协议确保那些</t>
     </r>
     <r>
@@ -896,6 +976,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2.ZAB 协议确保</t>
     </r>
     <r>
@@ -1000,6 +1087,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>ZAB用来构建</t>
     </r>
     <r>
@@ -1026,6 +1120,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Paxos是用来构建分布式</t>
     </r>
     <r>
@@ -1102,16 +1203,159 @@
     <t>一个 64 位的数字，</t>
   </si>
   <si>
-    <t>其中低 32 位可以看作是一个简单的递增的计数器，针对客户端的每一个事务请求，Leader 都会产生一个新的事务 Proposal 并对该计数器进行 + 1 操作。</t>
-  </si>
-  <si>
-    <t>而高 32 位则代表了 Leader 服务器上取出本地日志中最大事务 Proposal 的 ZXID，并从该 ZXID 中解析出对应的 epoch 值，然后再对这个值+1</t>
+    <r>
+      <t>其中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>低 32 位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>可以看作是一个简单的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>递增的计数器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，针对客户端的每一个事务请求，Leader 都会产生一个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>新的事务 Proposal 并对该计数器进行 + 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 操作。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>而</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>高 32 位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>则代表了</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Leader 服务器上取出本地日志中最大事务 Proposal 的 ZXID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，并从该 ZXID 中解析出对应的 epoch 值，然后再对这个值+1</t>
+    </r>
   </si>
   <si>
     <t>高 32 位代表了每代 Leader 的唯一性，低 32 代表了每代 Leader 中事务的唯一性。</t>
   </si>
   <si>
-    <t>基于这样的策略：当 Follower 链接上 Leader 之后，Leader 服务器会根据自己服务器上最后被提交的 ZXID 和 Follower 上的 ZXID 进行比对，比对结果要么回滚，要么和 Leader 同步。</t>
+    <r>
+      <t>基于这样的策略：当 Follower 链接上 Leader 之后，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leader 服务器会根据自己服务器上最后被提交的 ZXID 和 Follower 上的 ZXID 进行比对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>比对结果要么回滚，要么和 Leader 同步。</t>
+    </r>
   </si>
   <si>
     <t>Leader 选举</t>
@@ -1124,6 +1368,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>每个Server发出一个投票</t>
     </r>
     <r>
@@ -1160,6 +1412,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>接受来自各个服务器的投票</t>
     </r>
     <r>
@@ -1217,6 +1477,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>处理投票</t>
     </r>
     <r>
@@ -1232,6 +1500,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>优先</t>
     </r>
     <r>
@@ -1268,6 +1544,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>如果ZXID相同，那么就比较myid。</t>
     </r>
     <r>
@@ -1294,6 +1577,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>统计投票</t>
     </r>
     <r>
@@ -1320,6 +1611,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>改变服务器状态</t>
     </r>
     <r>
@@ -1383,6 +1682,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>每个Server会发出一个投票。</t>
     </r>
     <r>
@@ -1427,6 +1733,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>peerLastZxid：从learner服务器注册时发送的ACKEPOCH消息中提取lastZxid（</t>
     </r>
     <r>
@@ -1453,6 +1766,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>minCommittedLog：</t>
     </r>
     <r>
@@ -1490,6 +1810,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>maxCommittedLog：</t>
     </r>
     <r>
@@ -1566,6 +1893,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>除非</t>
     </r>
     <r>
@@ -1616,6 +1950,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>临时节点的生命周期与客户端会话绑定，</t>
     </r>
     <r>
@@ -1678,6 +2019,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Zookeeper允许</t>
     </r>
     <r>
@@ -1944,6 +2292,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>zk的</t>
     </r>
     <r>
@@ -1991,6 +2346,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>nginx</t>
     </r>
     <r>
@@ -2017,6 +2379,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>但是</t>
     </r>
     <r>
@@ -2103,30 +2472,6 @@
   </si>
   <si>
     <t>常用命令：ls get set create delete等。</t>
-  </si>
-  <si>
-    <t>Zookeeper的典型应用场景</t>
-  </si>
-  <si>
-    <t>数据发布/订阅</t>
-  </si>
-  <si>
-    <t>负载均衡</t>
-  </si>
-  <si>
-    <t>命名服务</t>
-  </si>
-  <si>
-    <t>分布式协调/通知</t>
-  </si>
-  <si>
-    <t>集群管理</t>
-  </si>
-  <si>
-    <t>Master选举</t>
-  </si>
-  <si>
-    <t>分布式队列</t>
   </si>
 </sst>
 </file>
@@ -2134,9 +2479,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -2165,35 +2510,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2208,62 +2525,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2285,16 +2568,78 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2309,7 +2654,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2321,49 +2744,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2381,7 +2768,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2393,103 +2810,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2500,6 +2845,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2518,17 +2878,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2566,36 +2931,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2608,10 +2953,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2620,34 +2965,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2656,105 +3001,102 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -3371,84 +3713,84 @@
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="4"/>
+      <c r="B25" s="3"/>
       <c r="C25" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="4"/>
+      <c r="B26" s="3"/>
       <c r="C26" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="4"/>
+      <c r="B27" s="3"/>
       <c r="C27" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="4"/>
+      <c r="B28" s="3"/>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="4"/>
+      <c r="B30" s="3"/>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="4"/>
+      <c r="B31" s="3"/>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="4"/>
+      <c r="B32" s="3"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="4"/>
+      <c r="B33" s="3"/>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="4"/>
+      <c r="B34" s="3"/>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="4"/>
+      <c r="B35" s="3"/>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="4"/>
+      <c r="B36" s="3"/>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="4"/>
+      <c r="B37" s="3"/>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="4"/>
+      <c r="B38" s="3"/>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="4"/>
+      <c r="B39" s="3"/>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="4"/>
+      <c r="B40" s="3"/>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="4"/>
+      <c r="B41" s="3"/>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="4"/>
+      <c r="B42" s="3"/>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="4"/>
+      <c r="B43" s="3"/>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="4"/>
+      <c r="B44" s="3"/>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="4"/>
+      <c r="B45" s="3"/>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="4"/>
+      <c r="B46" s="3"/>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="4"/>
+      <c r="B47" s="3"/>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
@@ -3523,12 +3865,12 @@
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="3:3">
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3643,17 +3985,17 @@
       </c>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3718,12 +4060,12 @@
       </c>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="67" spans="2:2">
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3806,10 +4148,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E252"/>
+  <dimension ref="A1:E251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3822,23 +4164,18 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:2">
+      <c r="B2" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2"/>
+    <row r="3" spans="3:3">
       <c r="C3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="2"/>
-    </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3852,33 +4189,38 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
         <v>79</v>
       </c>
     </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+    </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="3" t="s">
-        <v>80</v>
+      <c r="B10" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
+      <c r="B11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
-      <c r="B14" t="s">
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="2:2">
-      <c r="B15" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3892,288 +4234,288 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
-      <c r="B22" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
-      <c r="B23" t="s">
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="3" t="s">
+      <c r="B26" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="3" t="s">
+      <c r="B27" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="1" t="s">
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="1" t="s">
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
-      <c r="B30" s="1"/>
-      <c r="C30" t="s">
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="2:3">
-      <c r="B31" s="1"/>
-      <c r="C31" t="s">
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="2:3">
-      <c r="B32" s="1"/>
-      <c r="C32" t="s">
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
-      <c r="B33" s="1"/>
-      <c r="C33" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="1" t="s">
+    <row r="36" spans="2:2">
+      <c r="B36" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
-      <c r="B35" s="1"/>
-      <c r="C35" t="s">
+    <row r="37" spans="2:2">
+      <c r="B37" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="2:3">
-      <c r="B36" s="1"/>
-      <c r="C36" s="3" t="s">
+    <row r="38" spans="2:2">
+      <c r="B38" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="2:3">
-      <c r="B37" s="1"/>
-      <c r="C37" s="3" t="s">
+    <row r="39" spans="2:2">
+      <c r="B39" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="2:3">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1" t="s">
+    <row r="40" spans="2:3">
+      <c r="B40" s="1"/>
+      <c r="C40" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="2:3">
-      <c r="B39" s="3"/>
-      <c r="C39" t="s">
+    <row r="41" spans="2:3">
+      <c r="B41" s="1"/>
+      <c r="C41" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="3:4">
-      <c r="C40" s="3"/>
-      <c r="D40" t="s">
+    <row r="42" spans="2:3">
+      <c r="B42" s="1"/>
+      <c r="C42" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="1" t="s">
+    <row r="43" spans="2:3">
+      <c r="B43" s="1"/>
+      <c r="C43" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="3:3">
-      <c r="C42" t="s">
+    <row r="44" spans="2:2">
+      <c r="B44" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="3:3">
-      <c r="C43" t="s">
+    <row r="45" spans="2:3">
+      <c r="B45" s="1"/>
+      <c r="C45" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="1" t="s">
+    <row r="46" spans="2:3">
+      <c r="B46" s="1"/>
+      <c r="C46" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="2:2">
-      <c r="B46" t="s">
+    <row r="47" spans="2:3">
+      <c r="B47" s="1"/>
+      <c r="C47" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="47" spans="3:3">
-      <c r="C47" t="s">
+    <row r="48" spans="2:3">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="48" spans="3:3">
-      <c r="C48" t="s">
+    <row r="49" spans="2:3">
+      <c r="B49" s="2"/>
+      <c r="C49" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="49" spans="3:3">
-      <c r="C49" t="s">
+    <row r="50" spans="3:4">
+      <c r="C50" s="2"/>
+      <c r="D50" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="50" spans="2:2">
-      <c r="B50" t="s">
+    <row r="51" spans="2:2">
+      <c r="B51" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="51" spans="3:3">
-      <c r="C51" s="3" t="s">
+    <row r="52" spans="3:3">
+      <c r="C52" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="52" spans="3:3">
-      <c r="C52" s="3" t="s">
+    <row r="53" spans="3:3">
+      <c r="C53" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="1" t="s">
+    <row r="55" spans="1:1">
+      <c r="A55" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="55" spans="2:2">
-      <c r="B55" t="s">
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="56" spans="3:3">
-      <c r="C56" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3">
+      <c r="C58" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2">
-      <c r="B58" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="60" spans="3:3">
-      <c r="C60" t="s">
+    <row r="61" spans="3:3">
+      <c r="C61" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="61" spans="3:3">
-      <c r="C61" t="s">
+    <row r="62" spans="3:3">
+      <c r="C62" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="63" spans="2:2">
-      <c r="B63" t="s">
+    <row r="64" spans="1:1">
+      <c r="A64" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="64" spans="3:3">
-      <c r="C64" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="65" spans="3:3">
-      <c r="C65" t="s">
+    <row r="65" spans="2:2">
+      <c r="B65" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="1" t="s">
+    <row r="66" spans="3:3">
+      <c r="C66" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="69" spans="2:2">
-      <c r="B69" t="s">
+    <row r="67" spans="3:3">
+      <c r="C67" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="2:2">
-      <c r="B70" t="s">
+    <row r="68" spans="2:2">
+      <c r="B68" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="71" spans="2:2">
-      <c r="B71" t="s">
+    <row r="69" spans="3:3">
+      <c r="C69" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="72" spans="2:2">
-      <c r="B72" t="s">
+    <row r="70" spans="3:3">
+      <c r="C70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="1" t="s">
+    <row r="71" spans="3:3">
+      <c r="C71" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="75" spans="2:2">
-      <c r="B75" t="s">
+    <row r="73" spans="2:2">
+      <c r="B73" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="76" spans="2:2">
-      <c r="B76" t="s">
+    <row r="74" spans="3:3">
+      <c r="C74" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3">
+      <c r="C75" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="77" spans="2:2">
-      <c r="B77" t="s">
+    <row r="78" spans="1:1">
+      <c r="A78" s="1" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2">
-      <c r="B78" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="1" t="s">
+    <row r="81" spans="2:2">
+      <c r="B81" t="s">
         <v>140</v>
       </c>
     </row>
@@ -4182,138 +4524,138 @@
         <v>141</v>
       </c>
     </row>
-    <row r="83" spans="3:3">
-      <c r="C83" t="s">
+    <row r="84" spans="1:1">
+      <c r="A84" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="84" spans="4:4">
-      <c r="D84" s="1" t="s">
+    <row r="85" spans="2:2">
+      <c r="B85" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="85" spans="4:4">
-      <c r="D85" s="1" t="s">
+    <row r="86" spans="2:2">
+      <c r="B86" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="86" spans="4:4">
-      <c r="D86" s="1" t="s">
+    <row r="87" spans="2:2">
+      <c r="B87" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="87" spans="5:5">
-      <c r="E87" s="1" t="s">
+    <row r="88" spans="2:2">
+      <c r="B88" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="88" spans="5:5">
-      <c r="E88" s="3" t="s">
+    <row r="89" spans="2:2">
+      <c r="B89" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="89" spans="4:4">
-      <c r="D89" s="1" t="s">
+    <row r="91" spans="1:1">
+      <c r="A91" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="90" spans="4:4">
-      <c r="D90" s="1" t="s">
+    <row r="92" spans="2:2">
+      <c r="B92" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="92" spans="3:3">
-      <c r="C92" t="s">
+    <row r="93" spans="3:3">
+      <c r="C93" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="93" spans="4:4">
-      <c r="D93" t="s">
+    <row r="94" spans="4:4">
+      <c r="D94" s="1" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="94" spans="4:4">
-      <c r="D94" s="3" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="95" spans="4:4">
       <c r="D95" s="1" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="96" spans="4:4">
       <c r="D96" s="1" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="97" spans="5:5">
       <c r="E97" s="1" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="98" spans="5:5">
-      <c r="E98" s="3" t="s">
-        <v>147</v>
+      <c r="E98" s="2" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="99" spans="4:4">
       <c r="D99" s="1" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="100" spans="4:4">
       <c r="D100" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="104" spans="2:2">
-      <c r="B104" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3">
+      <c r="C102" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="103" spans="4:4">
+      <c r="D103" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="104" spans="4:4">
+      <c r="D104" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="105" spans="4:4">
+      <c r="D105" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="106" spans="4:4">
+      <c r="D106" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="105" spans="2:2">
-      <c r="B105" t="s">
+    <row r="107" spans="5:5">
+      <c r="E107" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="106" spans="3:3">
-      <c r="C106" s="1" t="s">
+    <row r="108" spans="5:5">
+      <c r="E108" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="107" spans="3:3">
-      <c r="C107" s="1" t="s">
+    <row r="109" spans="4:4">
+      <c r="D109" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="108" spans="3:3">
-      <c r="C108" s="1" t="s">
+    <row r="110" spans="4:4">
+      <c r="D110" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="110" spans="2:2">
-      <c r="B110" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="111" spans="3:3">
-      <c r="C111" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="112" spans="3:3">
-      <c r="C112" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="113" spans="3:3">
-      <c r="C113" s="3" t="s">
+    <row r="113" spans="1:1">
+      <c r="A113" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4327,8 +4669,8 @@
         <v>163</v>
       </c>
     </row>
-    <row r="117" spans="4:4">
-      <c r="D117" t="s">
+    <row r="117" spans="3:3">
+      <c r="C117" s="1" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4337,243 +4679,243 @@
         <v>165</v>
       </c>
     </row>
-    <row r="119" spans="4:4">
-      <c r="D119" t="s">
+    <row r="120" spans="2:2">
+      <c r="B120" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="120" spans="5:5">
-      <c r="E120" t="s">
+    <row r="121" spans="3:3">
+      <c r="C121" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="121" spans="3:3">
-      <c r="C121" s="1" t="s">
+    <row r="122" spans="3:3">
+      <c r="C122" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="122" spans="4:4">
-      <c r="D122" t="s">
+    <row r="123" spans="3:3">
+      <c r="C123" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="123" spans="3:3">
-      <c r="C123" s="1" t="s">
+    <row r="125" spans="2:2">
+      <c r="B125" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="124" spans="4:4">
-      <c r="D124" t="s">
+    <row r="126" spans="3:3">
+      <c r="C126" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="125" spans="4:4">
-      <c r="D125" t="s">
+    <row r="127" spans="4:4">
+      <c r="D127" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
-      <c r="A128" s="1" t="s">
+    <row r="128" spans="3:3">
+      <c r="C128" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="129" spans="2:2">
-      <c r="B129" t="s">
+    <row r="129" spans="4:4">
+      <c r="D129" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="130" spans="3:3">
-      <c r="C130" s="3" t="s">
+    <row r="130" spans="5:5">
+      <c r="E130" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="131" spans="2:2">
-      <c r="B131" t="s">
+    <row r="131" spans="3:3">
+      <c r="C131" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="132" spans="3:3">
-      <c r="C132" s="3" t="s">
+    <row r="132" spans="4:4">
+      <c r="D132" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="133" spans="2:2">
-      <c r="B133" t="s">
+    <row r="133" spans="3:3">
+      <c r="C133" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="134" spans="3:3">
-      <c r="C134" t="s">
+    <row r="134" spans="4:4">
+      <c r="D134" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="135" spans="2:2">
-      <c r="B135" t="s">
+    <row r="135" spans="4:4">
+      <c r="D135" t="s">
         <v>180</v>
-      </c>
-    </row>
-    <row r="136" spans="3:3">
-      <c r="C136" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="139" spans="2:2">
-      <c r="B139" s="3" t="s">
+    <row r="140" spans="3:3">
+      <c r="C140" s="2" t="s">
         <v>183</v>
-      </c>
-    </row>
-    <row r="140" spans="3:3">
-      <c r="C140" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="141" spans="2:2">
       <c r="B141" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="142" spans="3:3">
+      <c r="C142" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="142" spans="3:3">
-      <c r="C142" t="s">
+    <row r="143" spans="2:2">
+      <c r="B143" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="143" spans="3:3">
-      <c r="C143" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="144" spans="3:3">
       <c r="C144" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
-      <c r="A146" s="1" t="s">
+    <row r="146" spans="3:3">
+      <c r="C146" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="147" spans="2:2">
-      <c r="B147" t="s">
+    <row r="148" spans="1:1">
+      <c r="A148" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="148" spans="2:2">
-      <c r="B148" t="s">
+    <row r="149" spans="2:2">
+      <c r="B149" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="149" spans="2:2">
-      <c r="B149" t="s">
+    <row r="150" spans="3:3">
+      <c r="C150" t="s">
         <v>192</v>
-      </c>
-    </row>
-    <row r="150" spans="2:2">
-      <c r="B150" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="151" spans="2:2">
       <c r="B151" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="152" spans="3:3">
+      <c r="C152" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
-      <c r="A153" s="1" t="s">
+    <row r="153" spans="3:3">
+      <c r="C153" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="154" spans="2:2">
-      <c r="B154" t="s">
+    <row r="154" spans="3:3">
+      <c r="C154" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="155" spans="3:3">
-      <c r="C155" s="3" t="s">
+    <row r="156" spans="1:1">
+      <c r="A156" s="1" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="156" spans="4:4">
-      <c r="D156" s="3" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="157" spans="2:2">
       <c r="B157" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2">
+      <c r="B158" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="158" spans="3:3">
-      <c r="C158" t="s">
+    <row r="159" spans="2:2">
+      <c r="B159" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="159" spans="4:4">
-      <c r="D159" t="s">
+    <row r="160" spans="2:2">
+      <c r="B160" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="160" spans="4:4">
-      <c r="D160" t="s">
+    <row r="161" spans="2:2">
+      <c r="B161" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="161" spans="4:4">
-      <c r="D161" t="s">
+    <row r="163" spans="1:1">
+      <c r="A163" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="162" spans="4:4">
-      <c r="D162" t="s">
+    <row r="164" spans="2:2">
+      <c r="B164" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="163" spans="2:2">
-      <c r="B163" t="s">
+    <row r="165" spans="3:3">
+      <c r="C165" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="164" spans="3:3">
-      <c r="C164" t="s">
+    <row r="166" spans="4:4">
+      <c r="D166" s="2" t="s">
         <v>206</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" s="1" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="167" spans="2:2">
       <c r="B167" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="168" spans="3:3">
+      <c r="C168" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
-      <c r="A169" s="1" t="s">
+    <row r="169" spans="4:4">
+      <c r="D169" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="170" spans="2:2">
-      <c r="B170" t="s">
+    <row r="170" spans="4:4">
+      <c r="D170" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="171" spans="3:3">
-      <c r="C171" t="s">
+    <row r="171" spans="4:4">
+      <c r="D171" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="172" spans="3:3">
-      <c r="C172" t="s">
+    <row r="172" spans="4:4">
+      <c r="D172" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="173" spans="3:3">
-      <c r="C173" t="s">
+    <row r="173" spans="2:2">
+      <c r="B173" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4582,128 +4924,128 @@
         <v>214</v>
       </c>
     </row>
-    <row r="175" spans="2:2">
-      <c r="B175" t="s">
+    <row r="176" spans="1:1">
+      <c r="A176" s="1" t="s">
         <v>215</v>
-      </c>
-    </row>
-    <row r="176" spans="3:3">
-      <c r="C176" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="177" spans="2:2">
       <c r="B177" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="178" spans="3:3">
-      <c r="C178" t="s">
+    <row r="180" spans="2:2">
+      <c r="B180" t="s">
         <v>218</v>
-      </c>
-    </row>
-    <row r="179" spans="3:3">
-      <c r="C179" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="180" spans="3:3">
-      <c r="C180" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="181" spans="3:3">
       <c r="C181" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="182" spans="3:3">
       <c r="C182" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="183" spans="3:3">
+      <c r="C183" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="184" spans="3:3">
+      <c r="C184" t="s">
         <v>222</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1">
-      <c r="A184" s="1" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="185" spans="2:2">
       <c r="B185" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="186" spans="3:3">
       <c r="C186" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2">
+      <c r="B187" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
-      <c r="A188" s="1" t="s">
+    <row r="188" spans="3:3">
+      <c r="C188" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="189" spans="2:2">
-      <c r="B189" t="s">
+    <row r="189" spans="3:3">
+      <c r="C189" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="190" spans="2:2">
-      <c r="B190" t="s">
+    <row r="190" spans="3:3">
+      <c r="C190" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="191" spans="2:2">
-      <c r="B191" t="s">
+    <row r="191" spans="3:3">
+      <c r="C191" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="192" spans="2:2">
-      <c r="B192" t="s">
+    <row r="192" spans="3:3">
+      <c r="C192" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
-      <c r="A195" s="1" t="s">
+    <row r="194" spans="1:1">
+      <c r="A194" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="196" spans="2:2">
-      <c r="B196" t="s">
+    <row r="195" spans="2:2">
+      <c r="B195" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="197" spans="2:2">
-      <c r="B197" t="s">
+    <row r="196" spans="3:3">
+      <c r="C196" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="198" spans="2:2">
-      <c r="B198" t="s">
+    <row r="198" spans="1:1">
+      <c r="A198" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="200" spans="1:1">
-      <c r="A200" s="1" t="s">
+    <row r="199" spans="2:2">
+      <c r="B199" t="s">
         <v>235</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2">
+      <c r="B200" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="201" spans="2:2">
       <c r="B201" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1">
-      <c r="A203" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="204" spans="2:2">
-      <c r="B204" t="s">
+    <row r="202" spans="2:2">
+      <c r="B202" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="205" spans="2:2">
-      <c r="B205" t="s">
+    <row r="205" spans="1:1">
+      <c r="A205" s="1" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4717,33 +5059,33 @@
         <v>241</v>
       </c>
     </row>
-    <row r="209" spans="1:1">
-      <c r="A209" s="1" t="s">
+    <row r="208" spans="2:2">
+      <c r="B208" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="210" spans="2:2">
-      <c r="B210" s="3" t="s">
+    <row r="210" spans="1:1">
+      <c r="A210" s="1" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="211" spans="2:2">
-      <c r="B211" s="3" t="s">
+      <c r="B211" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="212" spans="2:2">
-      <c r="B212" s="3" t="s">
+    <row r="213" spans="1:1">
+      <c r="A213" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="213" spans="2:2">
-      <c r="B213" t="s">
+    <row r="214" spans="2:2">
+      <c r="B214" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="215" spans="1:1">
-      <c r="A215" s="1" t="s">
+    <row r="215" spans="2:2">
+      <c r="B215" t="s">
         <v>247</v>
       </c>
     </row>
@@ -4752,138 +5094,133 @@
         <v>248</v>
       </c>
     </row>
-    <row r="218" spans="1:1">
-      <c r="A218" s="1" t="s">
+    <row r="217" spans="2:2">
+      <c r="B217" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="219" spans="2:2">
-      <c r="B219" t="s">
+    <row r="219" spans="1:1">
+      <c r="A219" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="221" spans="1:1">
-      <c r="A221" s="1" t="s">
+    <row r="220" spans="2:2">
+      <c r="B220" s="2" t="s">
         <v>251</v>
       </c>
     </row>
+    <row r="221" spans="2:2">
+      <c r="B221" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
     <row r="222" spans="2:2">
-      <c r="B222" t="s">
-        <v>252</v>
+      <c r="B222" s="2" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="223" spans="2:2">
       <c r="B223" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="224" spans="2:2">
-      <c r="B224" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="226" spans="1:1">
-      <c r="A226" s="1" t="s">
+    <row r="225" spans="1:1">
+      <c r="A225" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="227" spans="2:2">
-      <c r="B227" t="s">
+    <row r="226" spans="2:2">
+      <c r="B226" t="s">
         <v>256</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" s="1" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="229" spans="2:2">
       <c r="B229" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="230" spans="2:2">
-      <c r="B230" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="231" spans="2:2">
-      <c r="B231" t="s">
+    <row r="231" spans="1:1">
+      <c r="A231" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="233" spans="1:1">
-      <c r="A233" s="1" t="s">
+    <row r="232" spans="2:2">
+      <c r="B232" t="s">
         <v>260</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2">
+      <c r="B233" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="234" spans="2:2">
       <c r="B234" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="237" spans="2:2">
       <c r="B237" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="238" spans="2:2">
-      <c r="B238" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="240" spans="1:1">
-      <c r="A240" s="1" t="s">
+    <row r="239" spans="2:2">
+      <c r="B239" t="s">
         <v>265</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2">
+      <c r="B240" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="241" spans="2:2">
       <c r="B241" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1">
-      <c r="A244" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="245" spans="2:2">
-      <c r="B245" t="s">
+    <row r="243" spans="1:1">
+      <c r="A243" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="246" spans="2:2">
-      <c r="B246" t="s">
+    <row r="244" spans="2:2">
+      <c r="B244" t="s">
         <v>269</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" s="1" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="247" spans="2:2">
       <c r="B247" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="248" spans="2:2">
       <c r="B248" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="249" spans="2:2">
-      <c r="B249" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="250" spans="2:2">
-      <c r="B250" t="s">
+    <row r="250" spans="1:1">
+      <c r="A250" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="251" spans="2:2">
       <c r="B251" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="252" spans="2:2">
-      <c r="B252" t="s">
         <v>274</v>
       </c>
     </row>

--- a/zookeeper/zookeeper.xlsx
+++ b/zookeeper/zookeeper.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12690" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -821,25 +821,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ZAB协议是为分布式协调服务Zookeeper专门设计的一种</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>支持崩溃恢复的原子广播协议</t>
+      <t>原子广播协议</t>
     </r>
     <r>
       <rPr>
@@ -4150,8 +4132,8 @@
   <sheetPr/>
   <dimension ref="A1:E251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4305,7 +4287,7 @@
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>101</v>
       </c>
     </row>

--- a/zookeeper/zookeeper.xlsx
+++ b/zookeeper/zookeeper.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" activeTab="2"/>
+    <workbookView windowWidth="19815" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -566,13 +566,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>ZooKeeper是一个开放源码的</t>
     </r>
     <r>
@@ -594,7 +587,28 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>，它是集群的管理者，</t>
+      <t>，它是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>集群的管理者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
     </r>
     <r>
       <rPr>
@@ -659,13 +673,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Zookeeper提供一个</t>
     </r>
     <r>
@@ -677,38 +684,38 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>多层级的节点命名空间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（节点称为</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>znode</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）。与文件系统不同的是，这些节点都可以设置关联的数据，而文件系统中只有文件节点可以存放数据而目录节点不行。</t>
+      <t>多层级的节点znode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。与文件系统不同的是，这些</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>节点都可以设置关联的数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，而文件系统中只有文件节点可以存放数据而目录节点不行。</t>
     </r>
   </si>
   <si>
@@ -787,6 +794,135 @@
     </r>
   </si>
   <si>
+    <t>四种类型的数据节点 Znode</t>
+  </si>
+  <si>
+    <t>PERSISTENT-持久节点</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>除非</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>手动删除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>否则节点一直存在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>于Zookeeper上</t>
+    </r>
+  </si>
+  <si>
+    <t>EPHEMERAL-临时节点</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>临时节点的生命周期与客户端会话绑定，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一旦客户端会话失效</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（客户端与zookeeper连接断开不一定会话失效），那么这个客户端创建的所有</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>临时节点都会被移除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>PERSISTENT_SEQUENTIAL-持久顺序节点</t>
+  </si>
+  <si>
+    <t>基本特性同持久节点，只是增加了顺序属性，节点名后边会追加一个由父节点维护的自增整型数字。</t>
+  </si>
+  <si>
+    <t>EPHEMERAL_SEQUENTIAL-临时顺序节点</t>
+  </si>
+  <si>
+    <t>基本特性同临时节点，增加了顺序属性，节点名后边会追加一个由父节点维护的自增整型数字。</t>
+  </si>
+  <si>
     <t>ZooKeeper 分布式锁实现原理</t>
   </si>
   <si>
@@ -821,6 +957,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>原子广播协议</t>
     </r>
     <r>
@@ -1186,6 +1330,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>其中</t>
     </r>
     <r>
@@ -1254,6 +1405,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>而</t>
     </r>
     <r>
@@ -1304,6 +1462,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>基于这样的策略：当 Follower 链接上 Leader 之后，</t>
     </r>
     <r>
@@ -1866,135 +2031,6 @@
   </si>
   <si>
     <t>Leader服务器上没有Proposal缓存队列且peerLastZxid不等于lastProcessZxid</t>
-  </si>
-  <si>
-    <t>四种类型的数据节点 Znode</t>
-  </si>
-  <si>
-    <t>PERSISTENT-持久节点</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>除非</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>手动删除</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>否则节点一直存在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>于Zookeeper上</t>
-    </r>
-  </si>
-  <si>
-    <t>EPHEMERAL-临时节点</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>临时节点的生命周期与客户端会话绑定，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>一旦客户端会话失效</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（客户端与zookeeper连接断开不一定会话失效），那么这个客户端创建的所有</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>临时节点都会被移除</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <t>PERSISTENT_SEQUENTIAL-持久顺序节点</t>
-  </si>
-  <si>
-    <t>基本特性同持久节点，只是增加了顺序属性，节点名后边会追加一个由父节点维护的自增整型数字。</t>
-  </si>
-  <si>
-    <t>EPHEMERAL_SEQUENTIAL-临时顺序节点</t>
-  </si>
-  <si>
-    <t>基本特性同临时节点，增加了顺序属性，节点名后边会追加一个由父节点维护的自增整型数字。</t>
   </si>
   <si>
     <t>Zookeeper Watcher 机制 -- 数据变更通知</t>
@@ -2461,10 +2497,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -2484,37 +2520,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2527,8 +2547,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2544,21 +2595,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2572,9 +2617,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2588,6 +2640,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2597,31 +2650,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2636,7 +2672,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2648,7 +2726,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2660,7 +2750,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2672,151 +2846,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2830,17 +2866,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2860,26 +2890,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2895,11 +2905,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2909,6 +2925,17 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2927,6 +2954,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2935,10 +2971,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2947,133 +2983,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4130,10 +4166,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E251"/>
+  <dimension ref="A1:E252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4162,12 +4198,12 @@
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>78</v>
       </c>
     </row>
@@ -4182,17 +4218,17 @@
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4231,6 +4267,9 @@
         <v>89</v>
       </c>
     </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="2"/>
+    </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
         <v>90</v>
@@ -4241,8 +4280,8 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
-      <c r="B25" t="s">
+    <row r="25" spans="3:3">
+      <c r="C25" s="2" t="s">
         <v>92</v>
       </c>
     </row>
@@ -4251,193 +4290,193 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
-      <c r="B27" t="s">
+    <row r="27" spans="3:3">
+      <c r="C27" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
-      <c r="B29" t="s">
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
         <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
-      <c r="B32" t="s">
+    <row r="31" spans="3:3">
+      <c r="C31" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
-      <c r="B33" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="1" t="s">
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
         <v>100</v>
       </c>
     </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>101</v>
+      </c>
+    </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="1" t="s">
-        <v>101</v>
+      <c r="B36" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="1" t="s">
+      <c r="B37" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="2:3">
-      <c r="B40" s="1"/>
-      <c r="C40" t="s">
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="41" spans="2:3">
-      <c r="B41" s="1"/>
-      <c r="C41" t="s">
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="2:3">
-      <c r="B42" s="1"/>
-      <c r="C42" t="s">
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="43" spans="2:3">
-      <c r="B43" s="1"/>
-      <c r="C43" t="s">
+    <row r="43" spans="2:2">
+      <c r="B43" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="1" t="s">
+    <row r="45" spans="1:1">
+      <c r="A45" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="2:3">
-      <c r="B45" s="1"/>
-      <c r="C45" t="s">
+    <row r="46" spans="2:2">
+      <c r="B46" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="46" spans="2:3">
-      <c r="B46" s="1"/>
-      <c r="C46" s="2" t="s">
+    <row r="47" spans="2:2">
+      <c r="B47" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="47" spans="2:3">
-      <c r="B47" s="1"/>
-      <c r="C47" s="2" t="s">
+    <row r="48" spans="2:2">
+      <c r="B48" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="48" spans="2:3">
-      <c r="B48" s="1"/>
-      <c r="C48" s="1" t="s">
+    <row r="49" spans="2:2">
+      <c r="B49" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="49" spans="2:3">
-      <c r="B49" s="2"/>
-      <c r="C49" t="s">
+    <row r="50" spans="2:3">
+      <c r="B50" s="1"/>
+      <c r="C50" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="50" spans="3:4">
-      <c r="C50" s="2"/>
-      <c r="D50" t="s">
+    <row r="51" spans="2:3">
+      <c r="B51" s="1"/>
+      <c r="C51" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="1" t="s">
+    <row r="52" spans="2:3">
+      <c r="B52" s="1"/>
+      <c r="C52" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="52" spans="3:3">
-      <c r="C52" t="s">
+    <row r="53" spans="2:3">
+      <c r="B53" s="1"/>
+      <c r="C53" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="53" spans="3:3">
-      <c r="C53" t="s">
+    <row r="54" spans="2:2">
+      <c r="B54" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="1" t="s">
+    <row r="55" spans="2:3">
+      <c r="B55" s="1"/>
+      <c r="C55" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
-      <c r="B56" t="s">
+    <row r="56" spans="2:3">
+      <c r="B56" s="1"/>
+      <c r="C56" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="57" spans="3:3">
-      <c r="C57" t="s">
+    <row r="57" spans="2:3">
+      <c r="B57" s="1"/>
+      <c r="C57" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="58" spans="3:3">
-      <c r="C58" t="s">
+    <row r="58" spans="2:3">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="59" spans="3:3">
+    <row r="59" spans="2:3">
+      <c r="B59" s="2"/>
       <c r="C59" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="60" spans="2:2">
-      <c r="B60" t="s">
+    <row r="60" spans="3:4">
+      <c r="C60" s="2"/>
+      <c r="D60" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="61" spans="3:3">
-      <c r="C61" s="2" t="s">
+    <row r="61" spans="2:2">
+      <c r="B61" s="1" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="62" spans="3:3">
-      <c r="C62" s="2" t="s">
+      <c r="C62" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="1" t="s">
+    <row r="63" spans="3:3">
+      <c r="C63" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="65" spans="2:2">
-      <c r="B65" t="s">
+    <row r="65" spans="1:1">
+      <c r="A65" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="66" spans="3:3">
-      <c r="C66" t="s">
+    <row r="66" spans="2:2">
+      <c r="B66" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4446,8 +4485,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="68" spans="2:2">
-      <c r="B68" t="s">
+    <row r="68" spans="3:3">
+      <c r="C68" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4456,753 +4495,753 @@
         <v>132</v>
       </c>
     </row>
-    <row r="70" spans="3:3">
-      <c r="C70" t="s">
+    <row r="70" spans="2:2">
+      <c r="B70" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="71" spans="3:3">
-      <c r="C71" t="s">
+      <c r="C71" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="73" spans="2:2">
-      <c r="B73" t="s">
+    <row r="72" spans="3:3">
+      <c r="C72" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="74" spans="3:3">
-      <c r="C74" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="75" spans="3:3">
-      <c r="C75" t="s">
+    <row r="74" spans="1:1">
+      <c r="A74" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="1" t="s">
+    <row r="75" spans="2:2">
+      <c r="B75" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="79" spans="2:2">
-      <c r="B79" t="s">
+    <row r="76" spans="3:3">
+      <c r="C76" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="80" spans="2:2">
-      <c r="B80" t="s">
+    <row r="77" spans="3:3">
+      <c r="C77" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="81" spans="2:2">
-      <c r="B81" t="s">
+    <row r="78" spans="2:2">
+      <c r="B78" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="82" spans="2:2">
-      <c r="B82" t="s">
+    <row r="79" spans="3:3">
+      <c r="C79" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="1" t="s">
+    <row r="80" spans="3:3">
+      <c r="C80" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="85" spans="2:2">
-      <c r="B85" t="s">
+    <row r="81" spans="3:3">
+      <c r="C81" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="86" spans="2:2">
-      <c r="B86" s="2" t="s">
+    <row r="83" spans="2:2">
+      <c r="B83" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="87" spans="2:2">
-      <c r="B87" s="2" t="s">
+    <row r="84" spans="3:3">
+      <c r="C84" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3">
+      <c r="C85" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="88" spans="2:2">
-      <c r="B88" t="s">
+    <row r="88" spans="1:1">
+      <c r="A88" s="1" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="89" spans="2:2">
-      <c r="B89" s="2" t="s">
+      <c r="B89" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="1" t="s">
+    <row r="90" spans="2:2">
+      <c r="B90" t="s">
         <v>148</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="93" spans="3:3">
-      <c r="C93" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="94" spans="4:4">
-      <c r="D94" s="1" t="s">
+    <row r="94" spans="1:1">
+      <c r="A94" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="95" spans="4:4">
-      <c r="D95" s="1" t="s">
+    <row r="95" spans="2:2">
+      <c r="B95" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="96" spans="4:4">
-      <c r="D96" s="1" t="s">
+    <row r="96" spans="2:2">
+      <c r="B96" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="97" spans="5:5">
-      <c r="E97" s="1" t="s">
+    <row r="97" spans="2:2">
+      <c r="B97" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="98" spans="5:5">
-      <c r="E98" s="2" t="s">
+    <row r="98" spans="2:2">
+      <c r="B98" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="99" spans="4:4">
-      <c r="D99" s="1" t="s">
+    <row r="99" spans="2:2">
+      <c r="B99" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="100" spans="4:4">
-      <c r="D100" s="1" t="s">
+    <row r="101" spans="1:1">
+      <c r="A101" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="102" spans="3:3">
-      <c r="C102" t="s">
+    <row r="102" spans="2:2">
+      <c r="B102" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="103" spans="4:4">
-      <c r="D103" t="s">
+    <row r="103" spans="3:3">
+      <c r="C103" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="104" spans="4:4">
-      <c r="D104" s="2" t="s">
+      <c r="D104" s="1" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="105" spans="4:4">
       <c r="D105" s="1" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="106" spans="4:4">
       <c r="D106" s="1" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="107" spans="5:5">
       <c r="E107" s="1" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="108" spans="5:5">
       <c r="E108" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
     </row>
     <row r="109" spans="4:4">
       <c r="D109" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="110" spans="4:4">
       <c r="D110" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2">
-      <c r="B114" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3">
+      <c r="C112" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="113" spans="4:4">
+      <c r="D113" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="114" spans="4:4">
+      <c r="D114" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="115" spans="4:4">
+      <c r="D115" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="115" spans="2:2">
-      <c r="B115" t="s">
+    <row r="116" spans="4:4">
+      <c r="D116" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="116" spans="3:3">
-      <c r="C116" s="1" t="s">
+    <row r="117" spans="5:5">
+      <c r="E117" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="117" spans="3:3">
-      <c r="C117" s="1" t="s">
+    <row r="118" spans="5:5">
+      <c r="E118" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="118" spans="3:3">
-      <c r="C118" s="1" t="s">
+    <row r="119" spans="4:4">
+      <c r="D119" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="120" spans="2:2">
-      <c r="B120" t="s">
+    <row r="120" spans="4:4">
+      <c r="D120" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="121" spans="3:3">
-      <c r="C121" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="122" spans="3:3">
-      <c r="C122" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="123" spans="3:3">
-      <c r="C123" s="2" t="s">
-        <v>169</v>
+    <row r="123" spans="1:1">
+      <c r="A123" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="126" spans="3:3">
       <c r="C126" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="127" spans="4:4">
-      <c r="D127" t="s">
         <v>172</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3">
+      <c r="C127" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="128" spans="3:3">
       <c r="C128" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="129" spans="4:4">
-      <c r="D129" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="130" spans="5:5">
-      <c r="E130" t="s">
+    <row r="130" spans="2:2">
+      <c r="B130" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="131" spans="3:3">
-      <c r="C131" s="1" t="s">
+      <c r="C131" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="132" spans="4:4">
-      <c r="D132" t="s">
+    <row r="132" spans="3:3">
+      <c r="C132" s="2" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="133" spans="3:3">
-      <c r="C133" s="1" t="s">
+      <c r="C133" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="134" spans="4:4">
-      <c r="D134" t="s">
+    <row r="135" spans="2:2">
+      <c r="B135" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="135" spans="4:4">
-      <c r="D135" t="s">
+    <row r="136" spans="3:3">
+      <c r="C136" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
-      <c r="A138" s="1" t="s">
+    <row r="137" spans="4:4">
+      <c r="D137" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="139" spans="2:2">
-      <c r="B139" t="s">
+    <row r="138" spans="3:3">
+      <c r="C138" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="140" spans="3:3">
-      <c r="C140" s="2" t="s">
+    <row r="139" spans="4:4">
+      <c r="D139" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="141" spans="2:2">
-      <c r="B141" t="s">
+    <row r="140" spans="5:5">
+      <c r="E140" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="142" spans="3:3">
-      <c r="C142" s="2" t="s">
+    <row r="141" spans="3:3">
+      <c r="C141" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="143" spans="2:2">
-      <c r="B143" t="s">
+    <row r="142" spans="4:4">
+      <c r="D142" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="144" spans="3:3">
-      <c r="C144" t="s">
+    <row r="143" spans="3:3">
+      <c r="C143" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="145" spans="2:2">
-      <c r="B145" t="s">
+    <row r="144" spans="4:4">
+      <c r="D144" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="146" spans="3:3">
-      <c r="C146" t="s">
+    <row r="145" spans="4:4">
+      <c r="D145" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
-      <c r="A148" s="1" t="s">
+    <row r="149" spans="1:1">
+      <c r="A149" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="149" spans="2:2">
-      <c r="B149" s="2" t="s">
+    <row r="150" spans="2:2">
+      <c r="B150" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="150" spans="3:3">
-      <c r="C150" t="s">
+    <row r="151" spans="3:3">
+      <c r="C151" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="151" spans="2:2">
-      <c r="B151" t="s">
+    <row r="152" spans="2:2">
+      <c r="B152" t="s">
         <v>193</v>
-      </c>
-    </row>
-    <row r="152" spans="3:3">
-      <c r="C152" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="153" spans="3:3">
       <c r="C153" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="154" spans="3:3">
       <c r="C154" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="155" spans="3:3">
+      <c r="C155" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
-      <c r="A156" s="1" t="s">
+    <row r="157" spans="1:1">
+      <c r="A157" s="1" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="157" spans="2:2">
-      <c r="B157" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="158" spans="2:2">
       <c r="B158" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="159" spans="2:2">
       <c r="B159" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="160" spans="2:2">
       <c r="B160" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="161" spans="2:2">
       <c r="B161" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2">
+      <c r="B162" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
-      <c r="A163" s="1" t="s">
+    <row r="164" spans="1:1">
+      <c r="A164" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="164" spans="2:2">
-      <c r="B164" t="s">
+    <row r="165" spans="2:2">
+      <c r="B165" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="165" spans="3:3">
-      <c r="C165" s="2" t="s">
+    <row r="166" spans="3:3">
+      <c r="C166" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="166" spans="4:4">
-      <c r="D166" s="2" t="s">
+    <row r="167" spans="4:4">
+      <c r="D167" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="167" spans="2:2">
-      <c r="B167" t="s">
+    <row r="168" spans="2:2">
+      <c r="B168" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="168" spans="3:3">
-      <c r="C168" t="s">
+    <row r="169" spans="3:3">
+      <c r="C169" t="s">
         <v>208</v>
-      </c>
-    </row>
-    <row r="169" spans="4:4">
-      <c r="D169" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="170" spans="4:4">
       <c r="D170" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="171" spans="4:4">
       <c r="D171" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="172" spans="4:4">
       <c r="D172" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="173" spans="4:4">
+      <c r="D173" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="173" spans="2:2">
-      <c r="B173" t="s">
+    <row r="174" spans="2:2">
+      <c r="B174" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="174" spans="3:3">
-      <c r="C174" t="s">
+    <row r="175" spans="3:3">
+      <c r="C175" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
-      <c r="A176" s="1" t="s">
+    <row r="177" spans="1:1">
+      <c r="A177" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="177" spans="2:2">
-      <c r="B177" t="s">
+    <row r="178" spans="2:2">
+      <c r="B178" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="179" spans="1:1">
-      <c r="A179" s="1" t="s">
+    <row r="180" spans="1:1">
+      <c r="A180" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="180" spans="2:2">
-      <c r="B180" t="s">
+    <row r="181" spans="2:2">
+      <c r="B181" t="s">
         <v>218</v>
-      </c>
-    </row>
-    <row r="181" spans="3:3">
-      <c r="C181" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="182" spans="3:3">
       <c r="C182" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="183" spans="3:3">
       <c r="C183" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="184" spans="3:3">
       <c r="C184" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="185" spans="3:3">
+      <c r="C185" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="185" spans="2:2">
-      <c r="B185" t="s">
+    <row r="186" spans="2:2">
+      <c r="B186" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="186" spans="3:3">
-      <c r="C186" t="s">
+    <row r="187" spans="3:3">
+      <c r="C187" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="187" spans="2:2">
-      <c r="B187" t="s">
+    <row r="188" spans="2:2">
+      <c r="B188" t="s">
         <v>225</v>
-      </c>
-    </row>
-    <row r="188" spans="3:3">
-      <c r="C188" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="189" spans="3:3">
       <c r="C189" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="190" spans="3:3">
       <c r="C190" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="191" spans="3:3">
       <c r="C191" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="192" spans="3:3">
       <c r="C192" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="193" spans="3:3">
+      <c r="C193" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="194" spans="1:1">
-      <c r="A194" s="1" t="s">
+    <row r="195" spans="1:1">
+      <c r="A195" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="195" spans="2:2">
-      <c r="B195" t="s">
+    <row r="196" spans="2:2">
+      <c r="B196" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="196" spans="3:3">
-      <c r="C196" t="s">
+    <row r="197" spans="3:3">
+      <c r="C197" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="198" spans="1:1">
-      <c r="A198" s="1" t="s">
+    <row r="199" spans="1:1">
+      <c r="A199" s="1" t="s">
         <v>234</v>
-      </c>
-    </row>
-    <row r="199" spans="2:2">
-      <c r="B199" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="200" spans="2:2">
       <c r="B200" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="201" spans="2:2">
       <c r="B201" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="202" spans="2:2">
       <c r="B202" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2">
+      <c r="B203" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="205" spans="1:1">
-      <c r="A205" s="1" t="s">
+    <row r="206" spans="1:1">
+      <c r="A206" s="1" t="s">
         <v>239</v>
-      </c>
-    </row>
-    <row r="206" spans="2:2">
-      <c r="B206" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="207" spans="2:2">
       <c r="B207" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="208" spans="2:2">
       <c r="B208" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2">
+      <c r="B209" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="210" spans="1:1">
-      <c r="A210" s="1" t="s">
+    <row r="211" spans="1:1">
+      <c r="A211" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="211" spans="2:2">
-      <c r="B211" t="s">
+    <row r="212" spans="2:2">
+      <c r="B212" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="213" spans="1:1">
-      <c r="A213" s="1" t="s">
+    <row r="214" spans="1:1">
+      <c r="A214" s="1" t="s">
         <v>245</v>
-      </c>
-    </row>
-    <row r="214" spans="2:2">
-      <c r="B214" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="215" spans="2:2">
       <c r="B215" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="216" spans="2:2">
       <c r="B216" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="217" spans="2:2">
       <c r="B217" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2">
+      <c r="B218" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="219" spans="1:1">
-      <c r="A219" s="1" t="s">
+    <row r="220" spans="1:1">
+      <c r="A220" s="1" t="s">
         <v>250</v>
-      </c>
-    </row>
-    <row r="220" spans="2:2">
-      <c r="B220" s="2" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="221" spans="2:2">
       <c r="B221" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="222" spans="2:2">
       <c r="B222" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2">
+      <c r="B223" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="223" spans="2:2">
-      <c r="B223" t="s">
+    <row r="224" spans="2:2">
+      <c r="B224" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="225" spans="1:1">
-      <c r="A225" s="1" t="s">
+    <row r="226" spans="1:1">
+      <c r="A226" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="226" spans="2:2">
-      <c r="B226" t="s">
+    <row r="227" spans="2:2">
+      <c r="B227" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="228" spans="1:1">
-      <c r="A228" s="1" t="s">
+    <row r="229" spans="1:1">
+      <c r="A229" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="229" spans="2:2">
-      <c r="B229" t="s">
+    <row r="230" spans="2:2">
+      <c r="B230" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="231" spans="1:1">
-      <c r="A231" s="1" t="s">
+    <row r="232" spans="1:1">
+      <c r="A232" s="1" t="s">
         <v>259</v>
-      </c>
-    </row>
-    <row r="232" spans="2:2">
-      <c r="B232" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="233" spans="2:2">
       <c r="B233" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="234" spans="2:2">
       <c r="B234" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2">
+      <c r="B235" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="236" spans="1:1">
-      <c r="A236" s="1" t="s">
+    <row r="237" spans="1:1">
+      <c r="A237" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="237" spans="2:2">
-      <c r="B237" t="s">
+    <row r="238" spans="2:2">
+      <c r="B238" t="s">
         <v>264</v>
-      </c>
-    </row>
-    <row r="239" spans="2:2">
-      <c r="B239" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="240" spans="2:2">
       <c r="B240" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="241" spans="2:2">
       <c r="B241" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2">
+      <c r="B242" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="243" spans="1:1">
-      <c r="A243" s="1" t="s">
+    <row r="244" spans="1:1">
+      <c r="A244" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="244" spans="2:2">
-      <c r="B244" t="s">
+    <row r="245" spans="2:2">
+      <c r="B245" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="246" spans="1:1">
-      <c r="A246" s="1" t="s">
+    <row r="247" spans="1:1">
+      <c r="A247" s="1" t="s">
         <v>270</v>
-      </c>
-    </row>
-    <row r="247" spans="2:2">
-      <c r="B247" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="248" spans="2:2">
       <c r="B248" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2">
+      <c r="B249" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="250" spans="1:1">
-      <c r="A250" s="1" t="s">
+    <row r="251" spans="1:1">
+      <c r="A251" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="251" spans="2:2">
-      <c r="B251" t="s">
+    <row r="252" spans="2:2">
+      <c r="B252" t="s">
         <v>274</v>
       </c>
     </row>

--- a/zookeeper/zookeeper.xlsx
+++ b/zookeeper/zookeeper.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="289">
   <si>
     <t>zookeeper 的使用场景</t>
   </si>
@@ -566,6 +566,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>ZooKeeper是一个开放源码的</t>
     </r>
     <r>
@@ -673,6 +680,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Zookeeper提供一个</t>
     </r>
     <r>
@@ -953,6 +967,344 @@
     <t>当waitPath被删除后, 进程获得通知, 此时说明该进程获得了锁.</t>
   </si>
   <si>
+    <t>服务器角色</t>
+  </si>
+  <si>
+    <t>Leader</t>
+  </si>
+  <si>
+    <r>
+      <t>事务请求的唯一</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>调度和处理者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，保证集群</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>事务处理的顺序性</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>集群内部各服务的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>调度者</t>
+    </r>
+  </si>
+  <si>
+    <t>Follower</t>
+  </si>
+  <si>
+    <r>
+      <t>处理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>客户端的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>非事务请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，转发事务请求给Leader服务器</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>参与</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>事务请求Proposal的投票</t>
+    </r>
+  </si>
+  <si>
+    <t>参与Leader选举投票</t>
+  </si>
+  <si>
+    <t>Observer（观察者，3.3.0版本以后引入的一个服务器角色，在不影响集群事务处理能力的基础上提升集群的非事务处理能力）</t>
+  </si>
+  <si>
+    <t>处理客户端的非事务请求，转发事务请求给Leader服务器</t>
+  </si>
+  <si>
+    <t>不参与任何形式的投票</t>
+  </si>
+  <si>
+    <t>ZXID</t>
+  </si>
+  <si>
+    <t>一个 64 位的数字，</t>
+  </si>
+  <si>
+    <r>
+      <t>其中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>低 32 位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>可以看作是一个简单的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>递增的计数器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，针对客户端的每一个事务请求，Leader 都会产生一个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>新的事务 Proposal（提议） 并对该计数器进行 + 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 操作。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>而</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>高 32 位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>则代表了Leader的ID</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Leader 服务器上取出本地日志中最大事务 Proposal 的 ZXID，并从该 ZXID 中解析出对应的 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>epoch（周期） 值，然后再对这个值+1</t>
+    </r>
+  </si>
+  <si>
+    <t>高 32 位代表了每代 Leader 的ID，低 32 代表了每代 Leader 中事务的唯一性。</t>
+  </si>
+  <si>
+    <r>
+      <t>基于这样的策略：当 Follower 链接上 Leader 之后，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leader 服务器会根据自己服务器上最后被提交的 ZXID 和 Follower 上的 ZXID 进行比对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>比对结果要么回滚，要么和 Leader 同步。</t>
+    </r>
+  </si>
+  <si>
+    <t>zookeeper是如何保证事务的顺序一致性的？</t>
+  </si>
+  <si>
+    <r>
+      <t>zookeeper采用了全局递增的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>事务Id来标识</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，所有的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>proposal（提议）都在被提出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的时候加上了zxid</t>
+    </r>
+  </si>
+  <si>
+    <t>ZXID是一个64位的数字，低32代表一个单调递增的计数器，高32位代表Leader周期。</t>
+  </si>
+  <si>
+    <t>当新产生proposal的时候，会依据数据库的两阶段过程，首先会向其他的server发出事务执行请求，如果超过半数的机器都能执行并且能够成功，那么就会开始执行。</t>
+  </si>
+  <si>
     <t>ZAB协议</t>
   </si>
   <si>
@@ -1029,16 +1381,214 @@
     <t>广播模式</t>
   </si>
   <si>
-    <t>ZAB 协议的消息广播过程使用的是一个原子广播协议，类似一个 二阶段提交过程。</t>
-  </si>
-  <si>
-    <t>对于客户端发送的写请求，全部由 Leader 接收</t>
-  </si>
-  <si>
-    <t>Leader 将请求封装成一个事务 Proposal，将其发送给所有 Follwer</t>
-  </si>
-  <si>
-    <t>然后，根据所有 Follwer 的反馈，如果超过半数成功响应，则执行 commit 操作（先提交自己，再发送 commit 给所有 Follwer）</t>
+    <r>
+      <t xml:space="preserve">ZAB 协议的消息广播过程使用的是一个原子广播协议，类似一个 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>二阶段提交过程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>对于</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>客户端发送的写请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>全部由 Leader 接收</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Leader 将请求</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>封装</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>成一个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>事务 Proposal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，将其</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发送</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">给所有 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Follwer</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>然后，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>根据所有 Follwer 的反馈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果超过半数成功响应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>则执行 commit 操作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（先提交自己，再发送 commit 给所有 Follwer）</t>
+    </r>
   </si>
   <si>
     <t>崩溃恢复</t>
@@ -1048,13 +1598,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>1.ZAB 协议确保那些</t>
     </r>
     <r>
@@ -1102,13 +1645,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>2.ZAB 协议确保</t>
     </r>
     <r>
@@ -1188,10 +1724,97 @@
     <t>数据同步</t>
   </si>
   <si>
-    <t>当崩溃恢复之后，需要在正式工作之前（接收客户端请求），Leader 服务器首先确认事务是否都已经被过半的 Follwer 提交了，即是否完成了数据同步。目的是为了保持数据一致。</t>
-  </si>
-  <si>
-    <t>当所有的 Follwer 服务器都成功同步之后，Leader 会将这些服务器加入到可用服务器列表中。</t>
+    <r>
+      <t>当崩溃恢复之后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，需要在正式工作之前（接收客户端请求），Leader 服务器首先</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>确认事务是否都已经被过半的 Follwer 提交了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，即是否完成了数据同步。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>目的是为了保持数据一致</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。当</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>所有的 Follwer 服务器都成功同步之后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，Leader 会</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>将这些服务器加入到可用服务器列表中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
   </si>
   <si>
     <t>ZAB和Paxos算法的联系与区别？</t>
@@ -1200,13 +1823,104 @@
     <t>相同点</t>
   </si>
   <si>
-    <t>两者都存在一个类似于Leader进程的角色，由其负责协调多个Follower进程的运行</t>
-  </si>
-  <si>
-    <t>Leader进程都会等待超过半数的Follower做出正确的反馈后，才会将一个提案进行提交</t>
-  </si>
-  <si>
-    <t>ZAB协议中，每个Proposal中都包含一个 epoch 值来代表当前的Leader周期，Paxos中名字为Ballot</t>
+    <r>
+      <t>两者都</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>存在一个类似于Leader进程的角色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，由其负责</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>协调多个Follower进程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的运行</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Leader进程都会等待</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>超过半数的Follower做出正确的反馈后，才会将一个提案进行提交</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ZAB协议中，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>每个Proposal中都包含一个 epoch 值来代表当前的Leader周期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，Paxos中名字为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ballot</t>
+    </r>
   </si>
   <si>
     <t>不同点</t>
@@ -1278,36 +1992,6 @@
     </r>
   </si>
   <si>
-    <t>服务器角色</t>
-  </si>
-  <si>
-    <t>Leader</t>
-  </si>
-  <si>
-    <t>事务请求的唯一调度和处理者，保证集群事务处理的顺序性</t>
-  </si>
-  <si>
-    <t>集群内部各服务的调度者</t>
-  </si>
-  <si>
-    <t>Follower</t>
-  </si>
-  <si>
-    <t>处理客户端的非事务请求，转发事务请求给Leader服务器</t>
-  </si>
-  <si>
-    <t>参与事务请求Proposal的投票</t>
-  </si>
-  <si>
-    <t>参与Leader选举投票</t>
-  </si>
-  <si>
-    <t>Observer（3.3.0版本以后引入的一个服务器角色，在不影响集群事务处理能力的基础上提升集群的非事务处理能力）</t>
-  </si>
-  <si>
-    <t>不参与任何形式的投票</t>
-  </si>
-  <si>
     <t>Zookeeper 下 Server工作状态</t>
   </si>
   <si>
@@ -1323,164 +2007,528 @@
     <t>OBSERVING：观察者状态。表明当前服务器角色是Observer。</t>
   </si>
   <si>
-    <t>ZXID</t>
-  </si>
-  <si>
-    <t>一个 64 位的数字，</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>其中</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>低 32 位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>可以看作是一个简单的</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>递增的计数器</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，针对客户端的每一个事务请求，Leader 都会产生一个</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>新的事务 Proposal 并对该计数器进行 + 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 操作。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>而</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>高 32 位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>则代表了</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Leader 服务器上取出本地日志中最大事务 Proposal 的 ZXID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，并从该 ZXID 中解析出对应的 epoch 值，然后再对这个值+1</t>
-    </r>
-  </si>
-  <si>
-    <t>高 32 位代表了每代 Leader 的唯一性，低 32 代表了每代 Leader 中事务的唯一性。</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>基于这样的策略：当 Follower 链接上 Leader 之后，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Leader 服务器会根据自己服务器上最后被提交的 ZXID 和 Follower 上的 ZXID 进行比对</t>
+    <t>Leader 选举</t>
+  </si>
+  <si>
+    <t>当Zookeeper集群中的一台服务器出现以下两种情况之一时，需要进入Leader选举。</t>
+  </si>
+  <si>
+    <t>1.服务器启动时期的Leader选举</t>
+  </si>
+  <si>
+    <r>
+      <t>每个Server发出一个投票</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。每次</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>投票会包含所推举的服务器的myid和ZXID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（集群范围内，全局单调唯一递增）使用(myid, ZXID)来表示，然后各自将这个投票发给集群中其他机器</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>接受来自各个服务器的投票</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。集群的每个服务器收到投票后，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>首先判断该投票的有效性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，如检查是否是本轮投票、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是否来自LOOKING状态的服务器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>处理投票</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。针对每一个投票，服务器都需要将别人的投票和自己的投票进行PK，PK规则如下</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>优先</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>检查ZXID。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ZXID比较大的服务器优先作为Leader</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果ZXID相同，那么就比较myid。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>myid较大的服务器作为Leader服务器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>统计投票</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。每次投票后，服务器都会统计投票信息，判断是否已经有</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>过半机器接受到相同的投票信息，如果有就认为选出了leader</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>改变服务器状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。一旦确定了Leader，每个服务器就会更新自己的状态，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果是Follower，那么就变更为FOLLOWING</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，如果是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leader，就变更为LEADING</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>2. 服务器运行时期的Leader选举</t>
+  </si>
+  <si>
+    <t>变更状态。Leader挂后，余下的非Observer服务器都会讲自己的服务器状态变更为LOOKING，然后开始进入Leader选举过程。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>每个Server会发出一个投票。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在第一轮投票中每个Server都会投自己</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，然后各自将投票发送给集群中所有机器</t>
+    </r>
+  </si>
+  <si>
+    <t>整个集群完成Leader选举之后，Learner（Follower和Observer的统称）回向Leader服务器进行注册。当Learner服务器想Leader服务器完成注册后，进入数据同步环节。</t>
+  </si>
+  <si>
+    <t>数据同步流程：（均以消息传递的方式进行）</t>
+  </si>
+  <si>
+    <t>1.Learner向Learder注册</t>
+  </si>
+  <si>
+    <t>2.数据同步</t>
+  </si>
+  <si>
+    <t>3.同步确认</t>
+  </si>
+  <si>
+    <t>在进行数据同步前，Leader服务器会完成数据同步初始化：</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>peerLastZxid：从learner服务器注册时发送的ACKEPOCH消息中提取lastZxid（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>该Learner服务器最后处理的ZXID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>minCommittedLog：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leader</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>服务器Proposal缓存队列committedLog</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中已提交最小ZXID</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>maxCommittedLog：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leader服务器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Proposal缓存队列committedLog</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中已提交最大ZXID</t>
+    </r>
+  </si>
+  <si>
+    <t>Zookeeper的数据同步通常分为四类：</t>
+  </si>
+  <si>
+    <t>直接差异化同步（DIFF同步）</t>
+  </si>
+  <si>
+    <t>场景：peerLastZxid介于minCommittedLog和maxCommittedLog之间</t>
+  </si>
+  <si>
+    <t>先回滚再差异化同步（TRUNC+DIFF同步）</t>
+  </si>
+  <si>
+    <t>场景：当新的Leader服务器发现某个Learner服务器包含了一条自己没有的事务记录，</t>
+  </si>
+  <si>
+    <t>那么就需要让该Learner服务器进行事务回滚--回滚到Leader服务器上存在的，同时也是最接近于peerLastZxid的ZXID</t>
+  </si>
+  <si>
+    <t>仅回滚同步（TRUNC同步）</t>
+  </si>
+  <si>
+    <t>peerLastZxid 大于 maxCommittedLog</t>
+  </si>
+  <si>
+    <t>全量同步（SNAP同步）</t>
+  </si>
+  <si>
+    <t>peerLastZxid 小于 minCommittedLog</t>
+  </si>
+  <si>
+    <t>Leader服务器上没有Proposal缓存队列且peerLastZxid不等于lastProcessZxid</t>
+  </si>
+  <si>
+    <t>Zookeeper Watcher 机制 -- 数据变更通知</t>
+  </si>
+  <si>
+    <r>
+      <t>Zookeeper允许</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>客户端向服务端的某个Znode注册一个Watcher监听</t>
     </r>
     <r>
       <rPr>
@@ -1501,115 +2549,450 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>比对结果要么回滚，要么和 Leader 同步。</t>
-    </r>
-  </si>
-  <si>
-    <t>Leader 选举</t>
-  </si>
-  <si>
-    <t>当Zookeeper集群中的一台服务器出现以下两种情况之一时，需要进入Leader选举。</t>
-  </si>
-  <si>
-    <t>1.服务器启动时期的Leader选举</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>每个Server发出一个投票</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。每次</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>投票会包含所推举的服务器的myid和ZXID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（集群范围内，全局单调唯一递增）使用(myid, ZXID)来表示，然后各自将这个投票发给集群中其他机器</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>接受来自各个服务器的投票</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。集群的每个服务器收到投票后，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>首先判断该投票的有效性</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，如检查是否是本轮投票、</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>是否来自LOOKING状态的服务器</t>
+      <t>当</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>服务端的一些指定</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>事件触发了这个Watcher</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+  </si>
+  <si>
+    <t>服务端会向指定客户端发送一个事件通知来实现分布式的通知功能，然后客户端根据Watcher通知状态和事件类型做出业务上的改变。</t>
+  </si>
+  <si>
+    <t>工作机制：</t>
+  </si>
+  <si>
+    <t>客户端注册watcher</t>
+  </si>
+  <si>
+    <t>服务端处理watcher</t>
+  </si>
+  <si>
+    <t>客户端回调watcher</t>
+  </si>
+  <si>
+    <t>客户端注册Watcher实现</t>
+  </si>
+  <si>
+    <t>服务端处理Watcher实现</t>
+  </si>
+  <si>
+    <t>1.服务端接收Watcher并存储</t>
+  </si>
+  <si>
+    <t>接收到客户端请求，处理请求判断是否需要注册Watcher，需要的话将数据节点的节点路径和ServerCnxn（ServerCnxn代表一个客户端和服务端的连接，</t>
+  </si>
+  <si>
+    <t>实现了Watcher的process接口，此时可以看成一个Watcher对象）存储在WatcherManager的WatchTable和watch2Paths中去。</t>
+  </si>
+  <si>
+    <t>2.Watcher触发（Watcher在服务端是一次性的，触发一次就失效了）</t>
+  </si>
+  <si>
+    <r>
+      <t>以服务端接收到 setData()</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 事务请求触发NodeDataChanged事件为例</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>封装WatchedEvent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：将通知状态（SyncConnected）、事件类型（NodeDataChanged）以及</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>节点路径封装成一个WatchedEvent对象</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>查询Watcher</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：从</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WatchTable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中根据</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>节点路径查找Watcher</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>没找到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>说明</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>没有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>客户端在该数据节点上</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>注册过Watcher(若无-没注册 直接退出)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>找到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：提取并从WatchTable和Watch2Paths中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>删除对应Watcher</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（从这里可以看出Watcher在服务端是一次性的，触发一次就失效了）</t>
+    </r>
+  </si>
+  <si>
+    <t>3.调用process方法来发送Watcher事件通知</t>
+  </si>
+  <si>
+    <t>这里process主要就是通过ServerCnxn对应的TCP连接发送Watcher事件通知。</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/rocky24/p/4859206.html</t>
+  </si>
+  <si>
+    <t>客户端回调Watcher</t>
+  </si>
+  <si>
+    <r>
+      <t>客户端SendThread</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>线程接收事件通知</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>交由EventThread线程回调Watcher</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。客户端的Watcher机制同样是一次性的，一旦被触发后，该Watcher就失效了。</t>
+    </r>
+  </si>
+  <si>
+    <t>ACL（Access Control List）访问控制列表，ZK节点权限控制机制</t>
+  </si>
+  <si>
+    <t>权限模式（Scheme）</t>
+  </si>
+  <si>
+    <t>IP：从IP地址粒度进行权限控制</t>
+  </si>
+  <si>
+    <t>Digest：最常用，用类似于 username:password 的权限标识来进行权限配置，便于区分不同应用来进行权限控制</t>
+  </si>
+  <si>
+    <t>World：最开放的权限控制方式，是一种特殊的digest模式，只有一个权限标识“world:anyone”</t>
+  </si>
+  <si>
+    <t>Super：超级用户</t>
+  </si>
+  <si>
+    <t>授权对象</t>
+  </si>
+  <si>
+    <t>授权对象指的是权限赋予的用户或一个指定实体，例如IP地址</t>
+  </si>
+  <si>
+    <t>权限 Permission（允许）</t>
+  </si>
+  <si>
+    <t>CREATE：数据节点创建权限，允许授权对象在该Znode下创建子节点</t>
+  </si>
+  <si>
+    <t>DELETE：子节点删除权限，允许授权对象删除该数据节点的子节点</t>
+  </si>
+  <si>
+    <t>READ：数据节点的读取权限，允许授权对象访问该数据节点并读取其数据内容或子节点列表等</t>
+  </si>
+  <si>
+    <t>WRITE：数据节点更新权限，允许授权对象对该数据节点进行更新操作</t>
+  </si>
+  <si>
+    <t>ADMIN：数据节点管理权限，允许授权对象对该数据节点进行ACL相关设置操作</t>
+  </si>
+  <si>
+    <t>Chroot特性</t>
+  </si>
+  <si>
+    <t>该特性允许每个客户端为自己设置一个命名空间。如果一个客户端设置了Chroot，那么该客户端对服务器的任何操作，都将会被限制在其自己的命名空间下。</t>
+  </si>
+  <si>
+    <t>通过设置Chroot，能够将一个客户端应用于Zookeeper服务端的一颗子树相对应，</t>
+  </si>
+  <si>
+    <t>在那些多个应用公用一个Zookeeper进群的场景下，对实现不同应用间的相互隔离非常有帮助。</t>
+  </si>
+  <si>
+    <t>会话管理</t>
+  </si>
+  <si>
+    <r>
+      <t>分桶策略：将类似的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>会话放在同一区块中进行管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，以便于Zookeeper对会话进行</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不同区块的隔离处理以及同一区块的统一处理</t>
     </r>
     <r>
       <rPr>
@@ -1624,59 +3007,160 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>处理投票</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。针对每一个投票，服务器都需要将别人的投票和自己的投票进行PK，PK规则如下</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>优先</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>检查ZXID。</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ZXID比较大的服务器优先作为Leader</t>
+      <t>分配原则：每个会话的“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>下次超时时间点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”（ExpirationTime）</t>
+    </r>
+  </si>
+  <si>
+    <t>ExpirationTime_ = currentTime + sessionTimeout</t>
+  </si>
+  <si>
+    <t>ExpirationTime = (ExpirationTime_ / ExpirationInrerval + 1) * ExpirationInterval ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ExpirationInterval 是指 Zookeeper 会话超时检查时间间隔，默认 tickTime</t>
+  </si>
+  <si>
+    <t>分布式集群中为什么会有Master？</t>
+  </si>
+  <si>
+    <r>
+      <t>在分布式环境中，有些业务逻辑</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>只需要集群中的某一台机器进行执行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>其他的机器可以共享这个结果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，这样可以</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>大大减少重复计算</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>提高性能，于是就需要进行leader选举。</t>
+    </r>
+  </si>
+  <si>
+    <t>zk节点宕机如何处理？</t>
+  </si>
+  <si>
+    <t>Zookeeper本身也是集群，推荐配置不少于3个服务器。</t>
+  </si>
+  <si>
+    <t>如果是一个Follower宕机，还有2台服务器提供访问，因为Zookeeper上的数据是有多个副本的，数据并不会丢失；</t>
+  </si>
+  <si>
+    <r>
+      <t>如果是一个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leader宕机，Zookeeper会选举出新的Leader。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ZK集群的机制是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>只要超过半数的节点正常，集群就能正常提供服务</t>
     </r>
     <r>
       <rPr>
@@ -1688,28 +3172,423 @@
       </rPr>
       <t>。</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>如果ZXID相同，那么就比较myid。</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>myid较大的服务器作为Leader服务器</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>只有在ZK节点挂得太多，只剩一半或不到一半节点能工作，集群才失效。</t>
+    </r>
+  </si>
+  <si>
+    <t>zookeeper负载均衡和nginx负载均衡区别</t>
+  </si>
+  <si>
+    <r>
+      <t>zk的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>负载均衡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>可以调控</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nginx</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>只是能调权重</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，其他需要可控的都需要自己写插件；</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>但是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nginx的吞吐量比zk大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>很多，</t>
+    </r>
+  </si>
+  <si>
+    <t>应该说按业务选择用哪种方式。</t>
+  </si>
+  <si>
+    <r>
+      <t>Nginx的负载均衡配置非常简单，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>把多个web server配置到nginx中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，用户</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>访问Nginx时，就会自动被分配到某个web server</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>为了保证稳定性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，每个服务不会只使用一台服务器，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>也会作为一个集群存在，那么这个子集群同样需要一个负载均衡器，可以使用Nginx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">但随着整个系统的演进， 服务 的数量会 增加 、每个服务集群中的 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>服务器 数量会增加,会有以下问题</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>配置维护的成本变高，因为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>节点太多</t>
+    </r>
+  </si>
+  <si>
+    <t>单点故障的风险增加了，因为热点服务的访问量很高，如果这个服务集群内的负载均衡服务出现问题，这个服务将失效</t>
+  </si>
+  <si>
+    <t>为了解决这些问题，就有人提出了使用ZooKeeper负载均衡的方案</t>
+  </si>
+  <si>
+    <r>
+      <t>把</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ZooKeeper作为一个服务的注册中心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，在其中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>登记每个服务，每台服务器知道自己是属于哪个服务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>在服务器启动时，自己向所属服务进行登记，这样，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一个树形的服务结构就呈现出来了</t>
+    </r>
+  </si>
+  <si>
+    <t>服务的调用者到注册中心里面查找：能提供所需服务的服务器列表，然后自己根据负载均衡算法，从中选取一台服务器进行连接</t>
+  </si>
+  <si>
+    <t>调用者取到服务器列表后，就可以缓存到自己内部，省得下次再取，当服务器列表发生变化，例如某台服务器宕机下线，或者新加了服</t>
+  </si>
+  <si>
+    <t>务器，ZooKeeper会自动通知调用者重新获取服务器列表</t>
+  </si>
+  <si>
+    <t>由于ZooKeeper并没有内置负载均衡策略，需要调用者自己实现，这个方案只是利用了ZooKeeper的树形数据结构、watcher机制等特性，</t>
+  </si>
+  <si>
+    <t>把ZooKeeper作为服务的注册和变更通知中心，解决了Nginx负载均衡方案带来的问题</t>
+  </si>
+  <si>
+    <t>Zookeeper有哪几种几种部署模式？</t>
+  </si>
+  <si>
+    <t>单机模式、伪集群模式、集群模式。</t>
+  </si>
+  <si>
+    <t>集群最少要几台机器，集群规则是怎样的?</t>
+  </si>
+  <si>
+    <t>集群规则为2N+1台，N&gt;0，即3台。</t>
+  </si>
+  <si>
+    <t>集群支持动态添加机器吗？</t>
+  </si>
+  <si>
+    <t>水平扩容了，Zookeeper在这方面不太好。两种方式：</t>
+  </si>
+  <si>
+    <t>全部重启：关闭所有Zookeeper服务，修改配置之后启动。不影响之前客户端的会话。</t>
+  </si>
+  <si>
+    <t>逐个重启：在过半存活即可用的原则下，一台机器重启不影响整个集群对外提供服务。这是比较常用的方式。</t>
+  </si>
+  <si>
+    <t>Zookeeper对节点的watch监听通知是永久的吗？为什么不是永久的?</t>
+  </si>
+  <si>
+    <t>不是。官方声明：一个Watch事件是一个一次性的触发器，当被设置了Watch的数据发生了改变的时候，则服务器将这个改变发送给设置了Watch的客户端，以便通知它们。</t>
+  </si>
+  <si>
+    <r>
+      <t>为什么不是永久的，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>举个例子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果服务端变动频繁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，而监听的客户端很多情况下，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>每次变动都要通知到所有的客户端</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，给</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>网络和服务器造成很大压力</t>
     </r>
     <r>
       <rPr>
@@ -1724,91 +3603,100 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>统计投票</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。每次投票后，服务器都会统计投票信息，判断是否已经有</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>过半机器接受到相同的投票信息，如果有就认为选出了leader</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>改变服务器状态</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。一旦确定了Leader，每个服务器就会更新自己的状态，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>如果是Follower，那么就变更为FOLLOWING</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，如果是</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Leader，就变更为LEADING</t>
+      <t>一般是客户端执行</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>getData(“/节点A”,true)，如果节点A发生了变更或删除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>客户端会得到它的watch事件，</t>
+    </r>
+  </si>
+  <si>
+    <t>但是在之后节点A又发生了变更，而客户端又没有设置watch事件，就不再给客户端发送。</t>
+  </si>
+  <si>
+    <r>
+      <t>在实际应用中，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>很多情况下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，我们的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>客户端不需要知道服务端的每一次变动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，我</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>只要最新的数据即可</t>
     </r>
     <r>
       <rPr>
@@ -1820,655 +3708,6 @@
       </rPr>
       <t>。</t>
     </r>
-  </si>
-  <si>
-    <t>2. 服务器运行时期的Leader选举</t>
-  </si>
-  <si>
-    <t>变更状态。Leader挂后，余下的非Observer服务器都会讲自己的服务器状态变更为LOOKING，然后开始进入Leader选举过程。</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>每个Server会发出一个投票。</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>在第一轮投票中每个Server都会投自己</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，然后各自将投票发送给集群中所有机器</t>
-    </r>
-  </si>
-  <si>
-    <t>整个集群完成Leader选举之后，Learner（Follower和Observer的统称）回向Leader服务器进行注册。当Learner服务器想Leader服务器完成注册后，进入数据同步环节。</t>
-  </si>
-  <si>
-    <t>数据同步流程：（均以消息传递的方式进行）</t>
-  </si>
-  <si>
-    <t>1.Learner向Learder注册</t>
-  </si>
-  <si>
-    <t>2.数据同步</t>
-  </si>
-  <si>
-    <t>3.同步确认</t>
-  </si>
-  <si>
-    <t>在进行数据同步前，Leader服务器会完成数据同步初始化：</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>peerLastZxid：从learner服务器注册时发送的ACKEPOCH消息中提取lastZxid（</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>该Learner服务器最后处理的ZXID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>minCommittedLog：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Leader</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>服务器Proposal缓存队列committedLog</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>中最小ZXID</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>maxCommittedLog：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Leader服务器</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Proposal缓存队列committedLog</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>中最大ZXID</t>
-    </r>
-  </si>
-  <si>
-    <t>Zookeeper的数据同步通常分为四类：</t>
-  </si>
-  <si>
-    <t>直接差异化同步（DIFF同步）</t>
-  </si>
-  <si>
-    <t>场景：peerLastZxid介于minCommittedLog和maxCommittedLog之间</t>
-  </si>
-  <si>
-    <t>先回滚再差异化同步（TRUNC+DIFF同步）</t>
-  </si>
-  <si>
-    <t>场景：当新的Leader服务器发现某个Learner服务器包含了一条自己没有的事务记录，</t>
-  </si>
-  <si>
-    <t>那么就需要让该Learner服务器进行事务回滚--回滚到Leader服务器上存在的，同时也是最接近于peerLastZxid的ZXID</t>
-  </si>
-  <si>
-    <t>仅回滚同步（TRUNC同步）</t>
-  </si>
-  <si>
-    <t>peerLastZxid 大于 maxCommittedLog</t>
-  </si>
-  <si>
-    <t>全量同步（SNAP同步）</t>
-  </si>
-  <si>
-    <t>peerLastZxid 小于 minCommittedLog</t>
-  </si>
-  <si>
-    <t>Leader服务器上没有Proposal缓存队列且peerLastZxid不等于lastProcessZxid</t>
-  </si>
-  <si>
-    <t>Zookeeper Watcher 机制 -- 数据变更通知</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Zookeeper允许</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>客户端向服务端的某个Znode注册一个Watcher监听</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>当</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>服务端的一些指定</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>事件触发了这个Watcher</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>服务端会向指定客户端发送一个事件通知</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>来实现分布式的通知功能，</t>
-    </r>
-  </si>
-  <si>
-    <t>然后客户端根据Watcher通知状态和事件类型做出业务上的改变。</t>
-  </si>
-  <si>
-    <t>工作机制：</t>
-  </si>
-  <si>
-    <t>客户端注册watcher</t>
-  </si>
-  <si>
-    <t>服务端处理watcher</t>
-  </si>
-  <si>
-    <t>客户端回调watcher</t>
-  </si>
-  <si>
-    <t>客户端注册Watcher实现</t>
-  </si>
-  <si>
-    <t>调用getData()/getChildren()/exist()三个API，传入Watcher对象</t>
-  </si>
-  <si>
-    <t>标记请求request，封装Watcher到WatchRegistration</t>
-  </si>
-  <si>
-    <t>封装成Packet对象，发服务端发送request</t>
-  </si>
-  <si>
-    <t>收到服务端响应后，将Watcher注册到ZKWatcherManager中进行管理</t>
-  </si>
-  <si>
-    <t>请求返回，完成注册。</t>
-  </si>
-  <si>
-    <t>服务端处理Watcher实现</t>
-  </si>
-  <si>
-    <t>1.服务端接收Watcher并存储</t>
-  </si>
-  <si>
-    <t>接收到客户端请求，处理请求判断是否需要注册Watcher，需要的话将数据节点的节点路径和ServerCnxn（ServerCnxn代表一个客户端和服务端的连接，</t>
-  </si>
-  <si>
-    <t>实现了Watcher的process接口，此时可以看成一个Watcher对象）存储在WatcherManager的WatchTable和watch2Paths中去。</t>
-  </si>
-  <si>
-    <t>2.Watcher触发（Watcher在服务端是一次性的，触发一次就失效了）</t>
-  </si>
-  <si>
-    <t>以服务端接收到 setData() 事务请求触发NodeDataChanged事件为例：</t>
-  </si>
-  <si>
-    <t>1.封装WatchedEvent：将通知状态（SyncConnected）、事件类型（NodeDataChanged）以及节点路径封装成一个WatchedEvent对象</t>
-  </si>
-  <si>
-    <t>2.查询Watcher：从WatchTable中根据节点路径查找Watcher</t>
-  </si>
-  <si>
-    <t>3.没找到说明没有客户端在该数据节点上注册过Watcher</t>
-  </si>
-  <si>
-    <t>4.找到：提取并从WatchTable和Watch2Paths中删除对应Watcher（从这里可以看出Watcher在服务端是一次性的，触发一次就失效了）</t>
-  </si>
-  <si>
-    <t>3.调用process方法来触发Watcher</t>
-  </si>
-  <si>
-    <t>这里process主要就是通过ServerCnxn对应的TCP连接发送Watcher事件通知。</t>
-  </si>
-  <si>
-    <t>客户端回调Watcher</t>
-  </si>
-  <si>
-    <t>客户端SendThread线程接收事件通知，交由EventThread线程回调Watcher。客户端的Watcher机制同样是一次性的，一旦被触发后，该Watcher就失效了。</t>
-  </si>
-  <si>
-    <t>ACL（Access Control List）访问控制列表，权限控制机制</t>
-  </si>
-  <si>
-    <t>权限模式（Scheme）</t>
-  </si>
-  <si>
-    <t>IP：从IP地址粒度进行权限控制</t>
-  </si>
-  <si>
-    <t>Digest：最常用，用类似于 username:password 的权限标识来进行权限配置，便于区分不同应用来进行权限控制</t>
-  </si>
-  <si>
-    <t>World：最开放的权限控制方式，是一种特殊的digest模式，只有一个权限标识“world:anyone”</t>
-  </si>
-  <si>
-    <t>Super：超级用户</t>
-  </si>
-  <si>
-    <t>授权对象</t>
-  </si>
-  <si>
-    <t>授权对象指的是权限赋予的用户或一个指定实体，例如IP地址或是机器灯。</t>
-  </si>
-  <si>
-    <t>权限 Permission（允许）</t>
-  </si>
-  <si>
-    <t>CREATE：数据节点创建权限，允许授权对象在该Znode下创建子节点</t>
-  </si>
-  <si>
-    <t>DELETE：子节点删除权限，允许授权对象删除该数据节点的子节点</t>
-  </si>
-  <si>
-    <t>READ：数据节点的读取权限，允许授权对象访问该数据节点并读取其数据内容或子节点列表等</t>
-  </si>
-  <si>
-    <t>WRITE：数据节点更新权限，允许授权对象对该数据节点进行更新操作</t>
-  </si>
-  <si>
-    <t>ADMIN：数据节点管理权限，允许授权对象对该数据节点进行ACL相关设置操作</t>
-  </si>
-  <si>
-    <t>Chroot特性</t>
-  </si>
-  <si>
-    <t>该特性允许每个客户端为自己设置一个命名空间。如果一个客户端设置了Chroot，那么该客户端对服务器的任何操作，都将会被限制在其自己的命名空间下。</t>
-  </si>
-  <si>
-    <t>通过设置Chroot，能够将一个客户端应用于Zookeeper服务端的一颗子树相对应，在那些多个应用公用一个Zookeeper进群的场景下，对实现不同应用间的相互隔离非常有帮助。</t>
-  </si>
-  <si>
-    <t>会话管理</t>
-  </si>
-  <si>
-    <t>分桶策略：将类似的会话放在同一区块中进行管理，以便于Zookeeper对会话进行不同区块的隔离处理以及同一区块的统一处理。</t>
-  </si>
-  <si>
-    <t>分配原则：每个会话的“下次超时时间点”（ExpirationTime）</t>
-  </si>
-  <si>
-    <t>ExpirationTime_ = currentTime + sessionTimeout</t>
-  </si>
-  <si>
-    <t>ExpirationTime = (ExpirationTime_ / ExpirationInrerval + 1) * ExpirationInterval , ExpirationInterval 是指 Zookeeper 会话超时检查时间间隔，默认 tickTime</t>
-  </si>
-  <si>
-    <t>zookeeper是如何保证事务的顺序一致性的？</t>
-  </si>
-  <si>
-    <t>zookeeper采用了全局递增的事务Id来标识，所有的proposal（提议）都在被提出的时候加上了zxid</t>
-  </si>
-  <si>
-    <t>ZXID是一个64位的数字，低32代表一个单调递增的计数器，高32位代表Leader周期。</t>
-  </si>
-  <si>
-    <t>当新产生proposal的时候，会依据数据库的两阶段过程，首先会向其他的server发出事务执行请求，如果超过半数的机器都能执行并且能够成功，那么就会开始执行。</t>
-  </si>
-  <si>
-    <t>分布式集群中为什么会有Master？</t>
-  </si>
-  <si>
-    <t>在分布式环境中，有些业务逻辑只需要集群中的某一台机器进行执行，其他的机器可以共享这个结果，这样可以大大减少重复计算，提高性能，于是就需要进行leader选举。</t>
-  </si>
-  <si>
-    <t>zk节点宕机如何处理？</t>
-  </si>
-  <si>
-    <t>Zookeeper本身也是集群，推荐配置不少于3个服务器。</t>
-  </si>
-  <si>
-    <t>如果是一个Follower宕机，还有2台服务器提供访问，因为Zookeeper上的数据是有多个副本的，数据并不会丢失；</t>
-  </si>
-  <si>
-    <t>如果是一个Leader宕机，Zookeeper会选举出新的Leader。</t>
-  </si>
-  <si>
-    <t>ZK集群的机制是只要超过半数的节点正常，集群就能正常提供服务。只有在ZK节点挂得太多，只剩一半或不到一半节点能工作，集群才失效。</t>
-  </si>
-  <si>
-    <t>zookeeper负载均衡和nginx负载均衡区别</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>zk的</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>负载均衡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>是</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>可以调控</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nginx</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>只是能调权重</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，其他需要可控的都需要自己写插件；</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>但是</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nginx的吞吐量比zk大</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>很多，</t>
-    </r>
-  </si>
-  <si>
-    <t>应该说按业务选择用哪种方式。</t>
-  </si>
-  <si>
-    <t>Zookeeper有哪几种几种部署模式？</t>
-  </si>
-  <si>
-    <t>单机模式、伪集群模式、集群模式。</t>
-  </si>
-  <si>
-    <t>集群最少要几台机器，集群规则是怎样的?</t>
-  </si>
-  <si>
-    <t>集群规则为2N+1台，N&gt;0，即3台。</t>
-  </si>
-  <si>
-    <t>集群支持动态添加机器吗？</t>
-  </si>
-  <si>
-    <t>水平扩容了，Zookeeper在这方面不太好。两种方式：</t>
-  </si>
-  <si>
-    <t>全部重启：关闭所有Zookeeper服务，修改配置之后启动。不影响之前客户端的会话。</t>
-  </si>
-  <si>
-    <t>逐个重启：在过半存活即可用的原则下，一台机器重启不影响整个集群对外提供服务。这是比较常用的方式。</t>
-  </si>
-  <si>
-    <t>Zookeeper对节点的watch监听通知是永久的吗？为什么不是永久的?</t>
-  </si>
-  <si>
-    <t>不是。官方声明：一个Watch事件是一个一次性的触发器，当被设置了Watch的数据发生了改变的时候，则服务器将这个改变发送给设置了Watch的客户端，以便通知它们。</t>
-  </si>
-  <si>
-    <t>为什么不是永久的，举个例子，如果服务端变动频繁，而监听的客户端很多情况下，每次变动都要通知到所有的客户端，给网络和服务器造成很大压力。</t>
-  </si>
-  <si>
-    <t>一般是客户端执行getData(“/节点A”,true)，如果节点A发生了变更或删除，客户端会得到它的watch事件，但是在之后节点A又发生了变更，而客户端又没有设置watch事件，就不再给客户端发送。</t>
-  </si>
-  <si>
-    <t>在实际应用中，很多情况下，我们的客户端不需要知道服务端的每一次变动，我只要最新的数据即可。</t>
   </si>
   <si>
     <t>Zookeeper的java客户端都有哪些？</t>
@@ -2497,10 +3736,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -2519,15 +3758,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2547,57 +3833,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2618,7 +3858,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2632,6 +3872,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -2640,24 +3888,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2672,13 +3911,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2696,7 +3953,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2708,7 +3965,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2720,61 +4043,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2786,37 +4055,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2828,25 +4073,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2869,8 +4108,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2886,21 +4140,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2931,35 +4170,35 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2971,10 +4210,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2983,19 +4222,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3004,116 +4243,116 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3121,6 +4360,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3392,6 +4634,53 @@
         <a:xfrm>
           <a:off x="523875" y="6915150"/>
           <a:ext cx="8458200" cy="1924050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>143510</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>131445</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1019175" y="28117800"/>
+          <a:ext cx="3239135" cy="3046095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3731,84 +5020,84 @@
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="3"/>
+      <c r="B25" s="4"/>
       <c r="C25" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="3"/>
+      <c r="B26" s="4"/>
       <c r="C26" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="3"/>
+      <c r="B27" s="4"/>
       <c r="C27" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="3"/>
+      <c r="B28" s="4"/>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="3"/>
+      <c r="B30" s="4"/>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="3"/>
+      <c r="B31" s="4"/>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="3"/>
+      <c r="B32" s="4"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="3"/>
+      <c r="B33" s="4"/>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="3"/>
+      <c r="B34" s="4"/>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="3"/>
+      <c r="B35" s="4"/>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="3"/>
+      <c r="B36" s="4"/>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="3"/>
+      <c r="B37" s="4"/>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="3"/>
+      <c r="B38" s="4"/>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="3"/>
+      <c r="B39" s="4"/>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="3"/>
+      <c r="B40" s="4"/>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="3"/>
+      <c r="B41" s="4"/>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="3"/>
+      <c r="B42" s="4"/>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="3"/>
+      <c r="B43" s="4"/>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="3"/>
+      <c r="B44" s="4"/>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="3"/>
+      <c r="B45" s="4"/>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="3"/>
+      <c r="B46" s="4"/>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="3"/>
+      <c r="B47" s="4"/>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
@@ -4166,10 +5455,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E252"/>
+  <dimension ref="A1:E284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
+      <selection activeCell="I269" sqref="I269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4371,297 +5660,293 @@
       </c>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="1" t="s">
+      <c r="B46" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
-      <c r="B47" s="2" t="s">
+    <row r="47" spans="3:3">
+      <c r="C47" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
-      <c r="B48" s="1" t="s">
+    <row r="48" spans="3:3">
+      <c r="C48" s="2" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="1" t="s">
+      <c r="B49" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="2:3">
-      <c r="B50" s="1"/>
-      <c r="C50" t="s">
+    <row r="50" spans="3:3">
+      <c r="C50" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="51" spans="2:3">
-      <c r="B51" s="1"/>
-      <c r="C51" t="s">
+    <row r="51" spans="3:3">
+      <c r="C51" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="2:3">
-      <c r="B52" s="1"/>
-      <c r="C52" t="s">
+    <row r="52" spans="3:3">
+      <c r="C52" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="2:3">
-      <c r="B53" s="1"/>
-      <c r="C53" t="s">
+    <row r="54" spans="2:2">
+      <c r="B54" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="1" t="s">
+    <row r="55" spans="3:3">
+      <c r="C55" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="55" spans="2:3">
-      <c r="B55" s="1"/>
-      <c r="C55" t="s">
+    <row r="56" spans="3:3">
+      <c r="C56" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="56" spans="2:3">
-      <c r="B56" s="1"/>
-      <c r="C56" s="2" t="s">
+    <row r="58" spans="1:1">
+      <c r="A58" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="57" spans="2:3">
-      <c r="B57" s="1"/>
-      <c r="C57" s="2" t="s">
+    <row r="59" spans="2:2">
+      <c r="B59" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="58" spans="2:3">
-      <c r="B58" s="1"/>
-      <c r="C58" s="1" t="s">
+    <row r="60" spans="2:2">
+      <c r="B60" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="59" spans="2:3">
-      <c r="B59" s="2"/>
-      <c r="C59" t="s">
+    <row r="61" spans="2:2">
+      <c r="B61" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="60" spans="3:4">
-      <c r="C60" s="2"/>
-      <c r="D60" t="s">
+    <row r="62" spans="2:3">
+      <c r="B62" s="2"/>
+      <c r="C62" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="61" spans="2:2">
-      <c r="B61" s="1" t="s">
+    <row r="63" spans="2:2">
+      <c r="B63" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="62" spans="3:3">
-      <c r="C62" t="s">
+    <row r="64" spans="2:2">
+      <c r="B64" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="63" spans="3:3">
-      <c r="C63" t="s">
+    <row r="66" spans="1:1">
+      <c r="A66" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="1" t="s">
+    <row r="67" spans="2:2">
+      <c r="B67" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="66" spans="2:2">
-      <c r="B66" t="s">
+    <row r="68" spans="2:2">
+      <c r="B68" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="67" spans="3:3">
-      <c r="C67" t="s">
+    <row r="69" spans="2:2">
+      <c r="B69" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="68" spans="3:3">
-      <c r="C68" t="s">
+    <row r="71" spans="1:1">
+      <c r="A71" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="3:3">
-      <c r="C69" t="s">
+    <row r="72" spans="2:2">
+      <c r="B72" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="70" spans="2:2">
-      <c r="B70" t="s">
+    <row r="73" spans="2:2">
+      <c r="B73" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="71" spans="3:3">
-      <c r="C71" s="2" t="s">
+    <row r="74" spans="2:2">
+      <c r="B74" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="72" spans="3:3">
-      <c r="C72" s="2" t="s">
+    <row r="75" spans="2:2">
+      <c r="B75" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="1" t="s">
+    <row r="76" spans="2:3">
+      <c r="B76" s="1"/>
+      <c r="C76" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="75" spans="2:2">
-      <c r="B75" t="s">
+    <row r="77" spans="2:3">
+      <c r="B77" s="1"/>
+      <c r="C77" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="76" spans="3:3">
-      <c r="C76" t="s">
+    <row r="78" spans="2:3">
+      <c r="B78" s="1"/>
+      <c r="C78" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="77" spans="3:3">
-      <c r="C77" t="s">
+    <row r="79" spans="2:3">
+      <c r="B79" s="1"/>
+      <c r="C79" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="78" spans="2:2">
-      <c r="B78" t="s">
+    <row r="80" spans="2:2">
+      <c r="B80" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="79" spans="3:3">
-      <c r="C79" t="s">
+    <row r="81" spans="2:3">
+      <c r="B81" s="1"/>
+      <c r="C81" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="80" spans="3:3">
-      <c r="C80" t="s">
+    <row r="82" spans="2:3">
+      <c r="B82" s="1"/>
+      <c r="C82" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="81" spans="3:3">
-      <c r="C81" t="s">
+    <row r="83" spans="2:3">
+      <c r="B83" s="1"/>
+      <c r="C83" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="83" spans="2:2">
-      <c r="B83" t="s">
+    <row r="84" spans="2:3">
+      <c r="B84" s="1"/>
+      <c r="C84" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="84" spans="3:3">
-      <c r="C84" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="85" spans="3:3">
+    <row r="85" spans="2:3">
+      <c r="B85" s="2"/>
       <c r="C85" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="1" t="s">
+    <row r="86" spans="3:4">
+      <c r="C86" s="2"/>
+      <c r="D86" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="89" spans="2:2">
-      <c r="B89" t="s">
+    <row r="87" spans="2:2">
+      <c r="B87" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="90" spans="2:2">
-      <c r="B90" t="s">
+    <row r="88" spans="3:3">
+      <c r="C88" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="91" spans="2:2">
-      <c r="B91" t="s">
+    <row r="89" spans="3:3">
+      <c r="C89" s="1" t="s">
         <v>149</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="95" spans="2:2">
-      <c r="B95" t="s">
+    <row r="93" spans="3:3">
+      <c r="C93" s="2" t="s">
         <v>152</v>
       </c>
     </row>
+    <row r="94" spans="3:3">
+      <c r="C94" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3">
+      <c r="C95" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
     <row r="96" spans="2:2">
-      <c r="B96" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2">
-      <c r="B97" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2">
-      <c r="B98" t="s">
+      <c r="B96" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="99" spans="2:2">
-      <c r="B99" s="2" t="s">
+    <row r="97" spans="3:3">
+      <c r="C97" s="2" t="s">
         <v>156</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3">
+      <c r="C98" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="102" spans="2:2">
       <c r="B102" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="103" spans="3:3">
-      <c r="C103" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="104" spans="4:4">
-      <c r="D104" s="1" t="s">
+    <row r="103" spans="2:2">
+      <c r="B103" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="105" spans="4:4">
-      <c r="D105" s="1" t="s">
+    <row r="104" spans="2:2">
+      <c r="B104" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="106" spans="4:4">
-      <c r="D106" s="1" t="s">
+    <row r="105" spans="2:2">
+      <c r="B105" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="107" spans="5:5">
-      <c r="E107" s="1" t="s">
+    <row r="107" spans="1:1">
+      <c r="A107" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="108" spans="5:5">
-      <c r="E108" s="2" t="s">
+    <row r="108" spans="2:2">
+      <c r="B108" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="109" spans="4:4">
-      <c r="D109" s="1" t="s">
+    <row r="109" spans="3:3">
+      <c r="C109" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4670,148 +5955,148 @@
         <v>166</v>
       </c>
     </row>
-    <row r="112" spans="3:3">
-      <c r="C112" t="s">
+    <row r="111" spans="4:4">
+      <c r="D111" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="113" spans="4:4">
-      <c r="D113" t="s">
+    <row r="112" spans="4:4">
+      <c r="D112" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="114" spans="4:4">
-      <c r="D114" s="2" t="s">
+    <row r="113" spans="5:5">
+      <c r="E113" s="1" t="s">
         <v>169</v>
+      </c>
+    </row>
+    <row r="114" spans="5:5">
+      <c r="E114" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="115" spans="4:4">
       <c r="D115" s="1" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="116" spans="4:4">
       <c r="D116" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="117" spans="5:5">
-      <c r="E117" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="118" spans="5:5">
-      <c r="E118" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3">
+      <c r="C118" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="119" spans="4:4">
-      <c r="D119" s="1" t="s">
-        <v>165</v>
+      <c r="D119" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="120" spans="4:4">
-      <c r="D120" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="124" spans="2:2">
-      <c r="B124" t="s">
+      <c r="D120" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="121" spans="4:4">
+      <c r="D121" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="122" spans="4:4">
+      <c r="D122" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="123" spans="5:5">
+      <c r="E123" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="124" spans="5:5">
+      <c r="E124" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="125" spans="2:2">
-      <c r="B125" t="s">
+    <row r="125" spans="4:4">
+      <c r="D125" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="126" spans="3:3">
-      <c r="C126" s="1" t="s">
+    <row r="126" spans="4:4">
+      <c r="D126" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="127" spans="3:3">
-      <c r="C127" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="128" spans="3:3">
-      <c r="C128" s="1" t="s">
-        <v>174</v>
+    <row r="129" spans="1:1">
+      <c r="A129" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="130" spans="2:2">
       <c r="B130" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="131" spans="3:3">
-      <c r="C131" s="2" t="s">
         <v>176</v>
       </c>
     </row>
+    <row r="131" spans="2:2">
+      <c r="B131" t="s">
+        <v>177</v>
+      </c>
+    </row>
     <row r="132" spans="3:3">
-      <c r="C132" s="2" t="s">
-        <v>177</v>
+      <c r="C132" s="1" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="133" spans="3:3">
-      <c r="C133" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="135" spans="2:2">
-      <c r="B135" t="s">
+      <c r="C133" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="136" spans="3:3">
-      <c r="C136" s="1" t="s">
+    <row r="134" spans="3:3">
+      <c r="C134" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="137" spans="4:4">
-      <c r="D137" t="s">
+    <row r="136" spans="2:2">
+      <c r="B136" t="s">
         <v>181</v>
       </c>
     </row>
+    <row r="137" spans="3:3">
+      <c r="C137" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
     <row r="138" spans="3:3">
-      <c r="C138" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="139" spans="4:4">
-      <c r="D139" t="s">
+      <c r="C138" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="140" spans="5:5">
-      <c r="E140" t="s">
+    <row r="139" spans="3:3">
+      <c r="C139" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="141" spans="3:3">
-      <c r="C141" s="1" t="s">
+    <row r="141" spans="2:2">
+      <c r="B141" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="142" spans="4:4">
-      <c r="D142" t="s">
+    <row r="142" spans="3:3">
+      <c r="C142" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="143" spans="3:3">
-      <c r="C143" s="1" t="s">
+    <row r="143" spans="4:4">
+      <c r="D143" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="144" spans="4:4">
-      <c r="D144" t="s">
+    <row r="144" spans="3:3">
+      <c r="C144" s="1" t="s">
         <v>188</v>
       </c>
     </row>
@@ -4820,434 +6105,509 @@
         <v>189</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
-      <c r="A149" s="1" t="s">
+    <row r="146" spans="5:5">
+      <c r="E146" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="150" spans="2:2">
-      <c r="B150" s="2" t="s">
+    <row r="147" spans="3:3">
+      <c r="C147" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="151" spans="3:3">
-      <c r="C151" t="s">
+    <row r="148" spans="4:4">
+      <c r="D148" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="152" spans="2:2">
-      <c r="B152" t="s">
+    <row r="149" spans="3:3">
+      <c r="C149" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="153" spans="3:3">
-      <c r="C153" t="s">
+    <row r="150" spans="4:4">
+      <c r="D150" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="154" spans="3:3">
-      <c r="C154" t="s">
+    <row r="151" spans="4:4">
+      <c r="D151" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="155" spans="3:3">
-      <c r="C155" t="s">
+    <row r="155" spans="1:1">
+      <c r="A155" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
-      <c r="A157" s="1" t="s">
+    <row r="156" spans="2:2">
+      <c r="B156" s="2" t="s">
         <v>197</v>
+      </c>
+    </row>
+    <row r="157" spans="3:3">
+      <c r="C157" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="158" spans="2:2">
       <c r="B158" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="159" spans="2:2">
-      <c r="B159" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="160" spans="2:2">
-      <c r="B160" t="s">
+    <row r="159" spans="3:3">
+      <c r="C159" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="161" spans="2:2">
-      <c r="B161" t="s">
+    <row r="160" spans="3:3">
+      <c r="C160" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="162" spans="2:2">
-      <c r="B162" t="s">
+    <row r="161" spans="3:3">
+      <c r="C161" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
-      <c r="A164" s="1" t="s">
+    <row r="163" spans="1:1">
+      <c r="A163" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="165" spans="2:2">
-      <c r="B165" t="s">
+    <row r="184" spans="1:1">
+      <c r="A184" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="166" spans="3:3">
-      <c r="C166" s="2" t="s">
+    <row r="185" spans="2:2">
+      <c r="B185" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="167" spans="4:4">
-      <c r="D167" s="2" t="s">
+    <row r="186" spans="3:3">
+      <c r="C186" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="168" spans="2:2">
-      <c r="B168" t="s">
+    <row r="187" spans="4:4">
+      <c r="D187" s="2" t="s">
         <v>207</v>
-      </c>
-    </row>
-    <row r="169" spans="3:3">
-      <c r="C169" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="170" spans="4:4">
-      <c r="D170" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="171" spans="4:4">
-      <c r="D171" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="172" spans="4:4">
-      <c r="D172" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="173" spans="4:4">
-      <c r="D173" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="174" spans="2:2">
-      <c r="B174" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="175" spans="3:3">
-      <c r="C175" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1">
-      <c r="A177" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="178" spans="2:2">
-      <c r="B178" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1">
-      <c r="A180" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="181" spans="2:2">
-      <c r="B181" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="182" spans="3:3">
-      <c r="C182" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="183" spans="3:3">
-      <c r="C183" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="184" spans="3:3">
-      <c r="C184" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="185" spans="3:3">
-      <c r="C185" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="186" spans="2:2">
-      <c r="B186" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="187" spans="3:3">
-      <c r="C187" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="188" spans="2:2">
       <c r="B188" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
     </row>
     <row r="189" spans="3:3">
-      <c r="C189" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="190" spans="3:3">
-      <c r="C190" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="191" spans="3:3">
-      <c r="C191" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="192" spans="3:3">
-      <c r="C192" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="193" spans="3:3">
-      <c r="C193" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1">
-      <c r="A195" s="1" t="s">
-        <v>231</v>
+      <c r="C189" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="190" spans="4:4">
+      <c r="D190" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="191" spans="4:4">
+      <c r="D191" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="192" spans="4:4">
+      <c r="D192" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="193" spans="4:4">
+      <c r="D193" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2">
+      <c r="B194" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="195" spans="3:3">
+      <c r="C195" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="196" spans="2:2">
-      <c r="B196" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="197" spans="3:3">
-      <c r="C197" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1">
-      <c r="A199" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="200" spans="2:2">
-      <c r="B200" t="s">
-        <v>235</v>
+      <c r="B196" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2">
+      <c r="B198" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="1" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="201" spans="2:2">
       <c r="B201" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="202" spans="2:2">
-      <c r="B202" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="203" spans="2:2">
-      <c r="B203" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1">
-      <c r="A206" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="207" spans="2:2">
-      <c r="B207" t="s">
-        <v>240</v>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="202" spans="3:3">
+      <c r="C202" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="203" spans="3:3">
+      <c r="C203" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="204" spans="3:3">
+      <c r="C204" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="205" spans="3:3">
+      <c r="C205" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2">
+      <c r="B206" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="207" spans="3:3">
+      <c r="C207" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="208" spans="2:2">
       <c r="B208" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="209" spans="2:2">
-      <c r="B209" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1">
-      <c r="A211" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="212" spans="2:2">
-      <c r="B212" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1">
-      <c r="A214" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="215" spans="2:2">
-      <c r="B215" t="s">
-        <v>246</v>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="209" spans="3:3">
+      <c r="C209" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="210" spans="3:3">
+      <c r="C210" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="211" spans="3:3">
+      <c r="C211" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="212" spans="3:3">
+      <c r="C212" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="213" spans="3:3">
+      <c r="C213" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="1" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="216" spans="2:2">
       <c r="B216" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="217" spans="2:2">
-      <c r="B217" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="218" spans="2:2">
-      <c r="B218" t="s">
-        <v>249</v>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="217" spans="3:3">
+      <c r="C217" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="218" spans="3:3">
+      <c r="C218" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" s="1" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
     </row>
     <row r="221" spans="2:2">
       <c r="B221" s="2" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
     </row>
     <row r="222" spans="2:2">
       <c r="B222" s="2" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="223" spans="2:2">
-      <c r="B223" s="2" t="s">
-        <v>253</v>
+      <c r="B223" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="224" spans="2:2">
       <c r="B224" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1">
-      <c r="A226" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="227" spans="2:2">
-      <c r="B227" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1">
-      <c r="A229" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="230" spans="2:2">
-      <c r="B230" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1">
-      <c r="A232" s="1" t="s">
-        <v>259</v>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="225" spans="3:3">
+      <c r="C225" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2">
+      <c r="B229" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2">
+      <c r="B232" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="233" spans="2:2">
       <c r="B233" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="234" spans="2:2">
-      <c r="B234" t="s">
-        <v>261</v>
+      <c r="B234" s="2" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="235" spans="2:2">
-      <c r="B235" t="s">
-        <v>262</v>
+      <c r="B235" s="2" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" s="1" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
     </row>
     <row r="238" spans="2:2">
-      <c r="B238" t="s">
-        <v>264</v>
+      <c r="B238" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2">
+      <c r="B239" s="2" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="240" spans="2:2">
-      <c r="B240" t="s">
-        <v>265</v>
+      <c r="B240" s="2" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="241" spans="2:2">
       <c r="B241" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="242" spans="2:2">
-      <c r="B242" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1">
-      <c r="A244" s="1" t="s">
-        <v>268</v>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2">
+      <c r="B243" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="244" spans="3:3">
+      <c r="C244" s="1" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="245" spans="2:2">
-      <c r="B245" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1">
-      <c r="A247" s="1" t="s">
-        <v>270</v>
+      <c r="B245" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="246" spans="3:3">
+      <c r="C246" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="247" spans="3:3">
+      <c r="C247" s="1" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="248" spans="2:2">
       <c r="B248" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="249" spans="3:3">
+      <c r="C249" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="250" spans="4:4">
+      <c r="D250" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="251" spans="3:3">
+      <c r="C251" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="252" spans="3:3">
+      <c r="C252" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="253" spans="4:4">
+      <c r="D253" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="254" spans="3:3">
+      <c r="C254" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="255" spans="4:4">
+      <c r="D255" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2">
+      <c r="B258" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2">
+      <c r="B261" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="249" spans="2:2">
-      <c r="B249" t="s">
+    <row r="263" spans="1:1">
+      <c r="A263" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="251" spans="1:1">
-      <c r="A251" s="1" t="s">
+    <row r="264" spans="2:2">
+      <c r="B264" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="252" spans="2:2">
-      <c r="B252" t="s">
+    <row r="265" spans="2:2">
+      <c r="B265" t="s">
         <v>274</v>
       </c>
     </row>
+    <row r="266" spans="2:2">
+      <c r="B266" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2">
+      <c r="B269" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2">
+      <c r="B271" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2">
+      <c r="B272" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="273" spans="2:3">
+      <c r="B273" s="2"/>
+      <c r="C273" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2">
+      <c r="B274" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2">
+      <c r="B277" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="280" spans="2:2">
+      <c r="B280" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2">
+      <c r="B281" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="284" spans="2:2">
+      <c r="B284" t="s">
+        <v>288</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B196" r:id="rId2" display="https://www.cnblogs.com/rocky24/p/4859206.html"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/zookeeper/zookeeper.xlsx
+++ b/zookeeper/zookeeper.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="290">
   <si>
     <t>zookeeper 的使用场景</t>
   </si>
@@ -974,6 +974,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>事务请求的唯一</t>
     </r>
     <r>
@@ -1011,6 +1018,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>集群内部各服务的</t>
     </r>
     <r>
@@ -1030,6 +1044,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>处理</t>
     </r>
     <r>
@@ -1066,6 +1088,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>参与</t>
     </r>
     <r>
@@ -1100,6 +1129,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>其中</t>
     </r>
     <r>
@@ -1168,6 +1204,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>而</t>
     </r>
     <r>
@@ -1194,6 +1237,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Leader 服务器上取出本地日志中最大事务 Proposal 的 ZXID，并从该 ZXID 中解析出对应的 </t>
     </r>
     <r>
@@ -1213,6 +1263,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>基于这样的策略：当 Follower 链接上 Leader 之后，</t>
     </r>
     <r>
@@ -1253,6 +1310,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>zookeeper采用了全局递增的</t>
     </r>
     <r>
@@ -1382,6 +1446,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">ZAB 协议的消息广播过程使用的是一个原子广播协议，类似一个 </t>
     </r>
     <r>
@@ -1408,6 +1479,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>对于</t>
     </r>
     <r>
@@ -1445,6 +1523,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Leader 将请求</t>
     </r>
     <r>
@@ -1524,6 +1609,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>然后，</t>
     </r>
     <r>
@@ -1598,6 +1690,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1.ZAB 协议确保那些</t>
     </r>
     <r>
@@ -1645,6 +1744,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2.ZAB 协议确保</t>
     </r>
     <r>
@@ -1725,6 +1831,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>当崩溃恢复之后</t>
     </r>
     <r>
@@ -1761,6 +1875,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>目的是为了保持数据一致</t>
     </r>
     <r>
@@ -1824,6 +1946,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>两者都</t>
     </r>
     <r>
@@ -1871,6 +2000,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Leader进程都会等待</t>
     </r>
     <r>
@@ -1887,6 +2023,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>ZAB协议中，</t>
     </r>
     <r>
@@ -2017,6 +2160,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>每个Server发出一个投票</t>
     </r>
     <r>
@@ -2407,6 +2558,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>minCommittedLog：</t>
     </r>
     <r>
@@ -2444,6 +2602,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>maxCommittedLog：</t>
     </r>
     <r>
@@ -2517,6 +2682,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Zookeeper允许</t>
     </r>
     <r>
@@ -2618,6 +2790,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>以服务端接收到 setData()</t>
     </r>
     <r>
@@ -2644,6 +2823,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1.</t>
     </r>
     <r>
@@ -2681,6 +2867,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2.</t>
     </r>
     <r>
@@ -2739,6 +2932,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>3.</t>
     </r>
     <r>
@@ -2797,6 +2997,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>4.</t>
     </r>
     <r>
@@ -2856,6 +3063,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>客户端SendThread</t>
     </r>
     <r>
@@ -2960,6 +3174,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>分桶策略：将类似的</t>
     </r>
     <r>
@@ -3007,6 +3228,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>分配原则：每个会话的“</t>
     </r>
     <r>
@@ -3045,6 +3273,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>在分布式环境中，有些业务逻辑</t>
     </r>
     <r>
@@ -3133,6 +3368,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>如果是一个</t>
     </r>
     <r>
@@ -3149,6 +3391,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>ZK集群的机制是</t>
     </r>
     <r>
@@ -3189,6 +3438,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>zk的</t>
     </r>
     <r>
@@ -3305,6 +3561,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Nginx的负载均衡配置非常简单，</t>
     </r>
     <r>
@@ -3342,6 +3605,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>为了保证稳定性</t>
     </r>
     <r>
@@ -3368,6 +3639,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">但随着整个系统的演进， 服务 的数量会 增加 、每个服务集群中的 </t>
     </r>
     <r>
@@ -3395,7 +3673,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>节点太多</t>
+      <t>节点太多(热点问题)</t>
     </r>
   </si>
   <si>
@@ -3406,6 +3684,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>把</t>
     </r>
     <r>
@@ -3453,6 +3738,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>在服务器启动时，自己向所属服务进行登记，这样，</t>
     </r>
     <r>
@@ -3489,6 +3781,9 @@
     <t>单机模式、伪集群模式、集群模式。</t>
   </si>
   <si>
+    <t>所有集群节点搭在一台机器上那种就是比较经常听到的“伪集群”所有集群节点分布在多台机器上就是“真集群”</t>
+  </si>
+  <si>
     <t>集群最少要几台机器，集群规则是怎样的?</t>
   </si>
   <si>
@@ -3514,6 +3809,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>为什么不是永久的，</t>
     </r>
     <r>
@@ -3603,6 +3905,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>一般是客户端执行</t>
     </r>
     <r>
@@ -3643,6 +3952,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>在实际应用中，</t>
     </r>
     <r>
@@ -3737,8 +4053,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -3766,8 +4082,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3790,60 +4165,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3851,29 +4173,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3888,15 +4187,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3911,7 +4227,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3923,7 +4293,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3935,67 +4305,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4013,7 +4347,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4031,49 +4365,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4085,13 +4407,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4105,11 +4421,59 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4130,21 +4494,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -4155,39 +4504,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4210,10 +4526,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4222,16 +4538,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4240,115 +4556,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5455,10 +5771,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E284"/>
+  <dimension ref="A1:E285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
-      <selection activeCell="I269" sqref="I269"/>
+    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="D254" sqref="D254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -6505,23 +6821,23 @@
         <v>269</v>
       </c>
     </row>
-    <row r="260" spans="1:1">
-      <c r="A260" s="1" t="s">
+    <row r="259" spans="2:2">
+      <c r="B259" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="261" spans="2:2">
-      <c r="B261" t="s">
+    <row r="261" spans="1:1">
+      <c r="A261" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="263" spans="1:1">
-      <c r="A263" s="1" t="s">
+    <row r="262" spans="2:2">
+      <c r="B262" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="264" spans="2:2">
-      <c r="B264" t="s">
+    <row r="264" spans="1:1">
+      <c r="A264" s="1" t="s">
         <v>273</v>
       </c>
     </row>
@@ -6535,18 +6851,18 @@
         <v>275</v>
       </c>
     </row>
-    <row r="268" spans="1:1">
-      <c r="A268" s="1" t="s">
+    <row r="267" spans="2:2">
+      <c r="B267" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="269" spans="2:2">
-      <c r="B269" t="s">
+    <row r="269" spans="1:1">
+      <c r="A269" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="271" spans="2:2">
-      <c r="B271" s="2" t="s">
+    <row r="270" spans="2:2">
+      <c r="B270" t="s">
         <v>278</v>
       </c>
     </row>
@@ -6555,34 +6871,34 @@
         <v>279</v>
       </c>
     </row>
-    <row r="273" spans="2:3">
-      <c r="B273" s="2"/>
-      <c r="C273" s="1" t="s">
+    <row r="273" spans="2:2">
+      <c r="B273" s="2" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="274" spans="2:2">
-      <c r="B274" s="2" t="s">
+    <row r="274" spans="2:3">
+      <c r="B274" s="2"/>
+      <c r="C274" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="276" spans="1:1">
-      <c r="A276" s="1" t="s">
+    <row r="275" spans="2:2">
+      <c r="B275" s="2" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="277" spans="2:2">
-      <c r="B277" t="s">
+    <row r="277" spans="1:1">
+      <c r="A277" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="279" spans="1:1">
-      <c r="A279" s="1" t="s">
+    <row r="278" spans="2:2">
+      <c r="B278" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="280" spans="2:2">
-      <c r="B280" t="s">
+    <row r="280" spans="1:1">
+      <c r="A280" s="1" t="s">
         <v>285</v>
       </c>
     </row>
@@ -6591,14 +6907,19 @@
         <v>286</v>
       </c>
     </row>
-    <row r="283" spans="1:1">
-      <c r="A283" s="1" t="s">
+    <row r="282" spans="2:2">
+      <c r="B282" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="284" spans="2:2">
-      <c r="B284" t="s">
+    <row r="284" spans="1:1">
+      <c r="A284" s="1" t="s">
         <v>288</v>
+      </c>
+    </row>
+    <row r="285" spans="2:2">
+      <c r="B285" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>

--- a/zookeeper/zookeeper.xlsx
+++ b/zookeeper/zookeeper.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8010" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12690" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3662,6 +3662,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>配置维护的成本变高，因为</t>
     </r>
     <r>
@@ -4052,10 +4059,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -4083,10 +4090,46 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4097,15 +4140,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4119,20 +4178,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -4142,7 +4187,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4158,14 +4203,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4178,45 +4224,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -4227,7 +4234,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4239,31 +4294,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4275,7 +4306,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4287,7 +4330,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4299,7 +4354,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4311,61 +4390,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4377,37 +4414,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4418,6 +4425,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -4440,7 +4482,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4450,30 +4492,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4507,17 +4525,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4526,10 +4533,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4538,16 +4545,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4556,115 +4563,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5773,8 +5780,8 @@
   <sheetPr/>
   <dimension ref="A1:E285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="D254" sqref="D254"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="L160" sqref="L160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
